--- a/scripts/novelty_algo_2_results.xlsx
+++ b/scripts/novelty_algo_2_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="812">
   <si>
     <t>id</t>
   </si>
@@ -286,7 +286,7 @@
     <t>['athletic', 'cup']</t>
   </si>
   <si>
-    <t>['medical', 'treatment', 'cupping']</t>
+    <t>['medical', 'treatment', 'cup']</t>
   </si>
   <si>
     <t>['transport', 'liquid']</t>
@@ -364,7 +364,7 @@
     <t>['capture', 'bug', 'like', 'roach']</t>
   </si>
   <si>
-    <t>['catch', 'dripping']</t>
+    <t>['catch', 'drip']</t>
   </si>
   <si>
     <t>['catch', 'bug']</t>
@@ -442,7 +442,7 @@
     <t>['cook']</t>
   </si>
   <si>
-    <t>['cupping', 'therapy']</t>
+    <t>['cup', 'therapy']</t>
   </si>
   <si>
     <t>['decorate']</t>
@@ -1114,9 +1114,6 @@
     <t>['tug', 'war']</t>
   </si>
   <si>
-    <t>['to', 'climb']</t>
-  </si>
-  <si>
     <t>['secure']</t>
   </si>
   <si>
@@ -1156,7 +1153,7 @@
     <t>['pulling', 'heavy']</t>
   </si>
   <si>
-    <t>['hold', 'pinata']</t>
+    <t>['hold', 'toy']</t>
   </si>
   <si>
     <t>['use', 'walk']</t>
@@ -1240,10 +1237,7 @@
     <t>['whip']</t>
   </si>
   <si>
-    <t>['to', 'swing']</t>
-  </si>
-  <si>
-    <t>['to', 'swat']</t>
+    <t>['swat']</t>
   </si>
   <si>
     <t>['hold', 'thing']</t>
@@ -1258,25 +1252,19 @@
     <t>['decorate', 'room']</t>
   </si>
   <si>
-    <t>['can', 'climbing', 'hang']</t>
-  </si>
-  <si>
-    <t>['used', 'tie', 'thing']</t>
-  </si>
-  <si>
-    <t>['used', 'pull', 'thing']</t>
-  </si>
-  <si>
-    <t>['could', 'fuel', 'fire']</t>
-  </si>
-  <si>
-    <t>['could', 'swung', 'weapon']</t>
+    <t>['climbing', 'hang']</t>
+  </si>
+  <si>
+    <t>['fuel', 'fire']</t>
+  </si>
+  <si>
+    <t>['swing', 'weapon']</t>
   </si>
   <si>
     <t>['pull']</t>
   </si>
   <si>
-    <t>['tripwire']</t>
+    <t>['trip', 'wire']</t>
   </si>
   <si>
     <t>['separate', 'thing', 'rope']</t>
@@ -1477,16 +1465,16 @@
     <t>['use', 'step', 'stool']</t>
   </si>
   <si>
-    <t>['used', 'build', 'thing']</t>
-  </si>
-  <si>
-    <t>['could', 'thrown', 'weapon']</t>
-  </si>
-  <si>
-    <t>['could', 'weight']</t>
-  </si>
-  <si>
-    <t>['could', 'hard', 'surface', 'like', 'anvil']</t>
+    <t>['build', 'thing']</t>
+  </si>
+  <si>
+    <t>['throw', 'weapon']</t>
+  </si>
+  <si>
+    <t>['weight']</t>
+  </si>
+  <si>
+    <t>['hard', 'surface', 'like', 'anvil']</t>
   </si>
   <si>
     <t>['use', 'weapon']</t>
@@ -1774,9 +1762,6 @@
     <t>['eat']</t>
   </si>
   <si>
-    <t>['stand', 'taller']</t>
-  </si>
-  <si>
     <t>['musical', 'chair']</t>
   </si>
   <si>
@@ -1816,7 +1801,7 @@
     <t>['lay', 'stuff']</t>
   </si>
   <si>
-    <t>['pushup']</t>
+    <t>['push', 'ups']</t>
   </si>
   <si>
     <t>['hit']</t>
@@ -1852,15 +1837,12 @@
     <t>['break', 'wood']</t>
   </si>
   <si>
-    <t>['tricep', 'dip', 'workout']</t>
+    <t>['muscle', 'dip', 'workout']</t>
   </si>
   <si>
     <t>['barricade']</t>
   </si>
   <si>
-    <t>['weight']</t>
-  </si>
-  <si>
     <t>['exercise', 'equipment', 'dip']</t>
   </si>
   <si>
@@ -1870,13 +1852,10 @@
     <t>['art', 'installation']</t>
   </si>
   <si>
-    <t>['to', 'sit']</t>
-  </si>
-  <si>
-    <t>['to', 'stand', 'reach', 'high']</t>
-  </si>
-  <si>
-    <t>['to', 'barricade', 'door']</t>
+    <t>['stand', 'reach', 'high']</t>
+  </si>
+  <si>
+    <t>['barricade', 'door']</t>
   </si>
   <si>
     <t>['break', 'apart', 'material']</t>
@@ -2122,9 +2101,6 @@
     <t>['poke', 'hole', 'paper']</t>
   </si>
   <si>
-    <t>['erasing']</t>
-  </si>
-  <si>
     <t>['building', 'bridge', 'pencil']</t>
   </si>
   <si>
@@ -2158,16 +2134,13 @@
     <t>['mae']</t>
   </si>
   <si>
-    <t>['scraping', 'dirt', 'grime']</t>
-  </si>
-  <si>
-    <t>['stabbing']</t>
+    <t>['scrape', 'dirt', 'grime']</t>
   </si>
   <si>
     <t>['extending', 'reach']</t>
   </si>
   <si>
-    <t>['prop', 'someti']</t>
+    <t>['prop']</t>
   </si>
   <si>
     <t>['draw', 'carve', 'art', 'surface']</t>
@@ -2179,7 +2152,7 @@
     <t>['whittle', 'different', 'sculpture']</t>
   </si>
   <si>
-    <t>['erase', 'thing', 'eraser']</t>
+    <t>['erase', 'thing', 'erase']</t>
   </si>
   <si>
     <t>['firewood']</t>
@@ -2194,19 +2167,16 @@
     <t>['hold', 'hair']</t>
   </si>
   <si>
-    <t>['used', 'write']</t>
-  </si>
-  <si>
-    <t>['could', 'weapon', 'like', 'john', 'wick']</t>
-  </si>
-  <si>
-    <t>['could', 'clean', 'one', 'ear']</t>
-  </si>
-  <si>
-    <t>['used', 'wooden', 'dowel', 'project']</t>
-  </si>
-  <si>
-    <t>['can', 'measure', 'thing', 'c']</t>
+    <t>['weapon', 'like', 'john', 'wick']</t>
+  </si>
+  <si>
+    <t>['clean', 'one', 'ear']</t>
+  </si>
+  <si>
+    <t>['wooden', 'dowel', 'project']</t>
+  </si>
+  <si>
+    <t>['measure', 'thing', 'c']</t>
   </si>
   <si>
     <t>['write', 'draw']</t>
@@ -2377,7 +2347,7 @@
     <t>['piece', 'footwear']</t>
   </si>
   <si>
-    <t>['fly', 'swatter']</t>
+    <t>['fly', 'swat']</t>
   </si>
   <si>
     <t>['dog', 'toy']</t>
@@ -2410,13 +2380,10 @@
     <t>['walking']</t>
   </si>
   <si>
-    <t>['swatting', 'fly']</t>
-  </si>
-  <si>
-    <t>['donating']</t>
-  </si>
-  <si>
-    <t>['exercising']</t>
+    <t>['swat', 'fly']</t>
+  </si>
+  <si>
+    <t>['donate']</t>
   </si>
   <si>
     <t>['kicking']</t>
@@ -2431,9 +2398,6 @@
     <t>['try']</t>
   </si>
   <si>
-    <t>['measure', 'somet']</t>
-  </si>
-  <si>
     <t>['hit', 'bug']</t>
   </si>
   <si>
@@ -2449,9 +2413,6 @@
     <t>['play', 'catch', 'dog']</t>
   </si>
   <si>
-    <t>['swat', 'fly']</t>
-  </si>
-  <si>
     <t>['toy', 'baby']</t>
   </si>
   <si>
@@ -2462,9 +2423,6 @@
   </si>
   <si>
     <t>['fashion', 'statement']</t>
-  </si>
-  <si>
-    <t>['doorstop']</t>
   </si>
   <si>
     <t>['cup']</t>
@@ -2892,7 +2850,7 @@
         <v>78</v>
       </c>
       <c r="E2">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2909,7 +2867,7 @@
         <v>79</v>
       </c>
       <c r="E3">
-        <v>0.3140246239608745</v>
+        <v>0.6859753760391254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2926,7 +2884,7 @@
         <v>80</v>
       </c>
       <c r="E4">
-        <v>0.6492450060007361</v>
+        <v>0.3507549939992639</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2943,7 +2901,7 @@
         <v>81</v>
       </c>
       <c r="E5">
-        <v>0.3857884435900078</v>
+        <v>0.6142115564099921</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2960,7 +2918,7 @@
         <v>82</v>
       </c>
       <c r="E6">
-        <v>0.3759602889838113</v>
+        <v>0.6240397110161887</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2977,7 +2935,7 @@
         <v>83</v>
       </c>
       <c r="E7">
-        <v>0.5817473888572131</v>
+        <v>0.4182526111427869</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2994,7 +2952,7 @@
         <v>84</v>
       </c>
       <c r="E8">
-        <v>0.6328824229661213</v>
+        <v>0.3671175770338787</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3011,7 +2969,7 @@
         <v>85</v>
       </c>
       <c r="E9">
-        <v>0.2898863146576947</v>
+        <v>0.7101136853423053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3028,7 +2986,7 @@
         <v>86</v>
       </c>
       <c r="E10">
-        <v>0.3085987011412997</v>
+        <v>0.6914012988587003</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3045,7 +3003,7 @@
         <v>87</v>
       </c>
       <c r="E11">
-        <v>0.5656016343065871</v>
+        <v>0.4343983656934129</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3062,7 +3020,7 @@
         <v>78</v>
       </c>
       <c r="E12">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3079,7 +3037,7 @@
         <v>88</v>
       </c>
       <c r="E13">
-        <v>0.08119643946631097</v>
+        <v>0.5950427170442031</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3096,7 +3054,7 @@
         <v>89</v>
       </c>
       <c r="E14">
-        <v>0.3431002903239178</v>
+        <v>0.6568997096760822</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3113,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>0.5298841856885946</v>
+        <v>0.4701158143114054</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3130,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="E16">
-        <v>0.5357344378852719</v>
+        <v>0.4642655621147281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3147,7 +3105,7 @@
         <v>92</v>
       </c>
       <c r="E17">
-        <v>0.6248630007973375</v>
+        <v>0.3751369992026625</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3164,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="E18">
-        <v>0.481346405724878</v>
+        <v>0.518653594275122</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3181,7 +3139,7 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3198,7 +3156,7 @@
         <v>94</v>
       </c>
       <c r="E20">
-        <v>0.3817641327871025</v>
+        <v>0.6182358672128975</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3215,7 +3173,7 @@
         <v>95</v>
       </c>
       <c r="E21">
-        <v>0.5539415315137517</v>
+        <v>0.4460584684862483</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3232,7 +3190,7 @@
         <v>96</v>
       </c>
       <c r="E22">
-        <v>0.6484405145679915</v>
+        <v>0.3515594854320085</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3249,7 +3207,7 @@
         <v>97</v>
       </c>
       <c r="E23">
-        <v>0.3924833109951273</v>
+        <v>0.6075166890048727</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3266,7 +3224,7 @@
         <v>98</v>
       </c>
       <c r="E24">
-        <v>0.4595394129882582</v>
+        <v>0.5404605870117418</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3283,7 +3241,7 @@
         <v>99</v>
       </c>
       <c r="E25">
-        <v>0.4212182647901433</v>
+        <v>0.5787817352098567</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3300,7 +3258,7 @@
         <v>100</v>
       </c>
       <c r="E26">
-        <v>0.5496582530541194</v>
+        <v>0.4503417469458806</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3317,7 +3275,7 @@
         <v>101</v>
       </c>
       <c r="E27">
-        <v>0.18262082050788</v>
+        <v>0.8173791794921199</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3334,7 +3292,7 @@
         <v>102</v>
       </c>
       <c r="E28">
-        <v>0.6723638173275369</v>
+        <v>0.3276361826724631</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3351,7 +3309,7 @@
         <v>78</v>
       </c>
       <c r="E29">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3368,7 +3326,7 @@
         <v>103</v>
       </c>
       <c r="E30">
-        <v>0.1462350616089959</v>
+        <v>0.8537649383910041</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3385,7 +3343,7 @@
         <v>104</v>
       </c>
       <c r="E31">
-        <v>0.6783389316950592</v>
+        <v>0.3216610683049408</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3402,7 +3360,7 @@
         <v>105</v>
       </c>
       <c r="E32">
-        <v>0.4911836834031509</v>
+        <v>0.5088163165968491</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3419,7 +3377,7 @@
         <v>106</v>
       </c>
       <c r="E33">
-        <v>0.3535810013962359</v>
+        <v>0.6464189986037641</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3436,7 +3394,7 @@
         <v>78</v>
       </c>
       <c r="E34">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3453,7 +3411,7 @@
         <v>107</v>
       </c>
       <c r="E35">
-        <v>0.555197776370853</v>
+        <v>0.444802223629147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3470,7 +3428,7 @@
         <v>98</v>
       </c>
       <c r="E36">
-        <v>0.4595394129882582</v>
+        <v>0.5404605870117418</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3487,7 +3445,7 @@
         <v>108</v>
       </c>
       <c r="E37">
-        <v>0.4942419274571024</v>
+        <v>0.5057580725428976</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3504,7 +3462,7 @@
         <v>109</v>
       </c>
       <c r="E38">
-        <v>0.3179307964923154</v>
+        <v>0.6820692035076846</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3521,7 +3479,7 @@
         <v>110</v>
       </c>
       <c r="E39">
-        <v>0.2754550734776618</v>
+        <v>0.7245449265223383</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3538,7 +3496,7 @@
         <v>78</v>
       </c>
       <c r="E40">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3555,7 +3513,7 @@
         <v>111</v>
       </c>
       <c r="E41">
-        <v>0.3382474195650421</v>
+        <v>0.6617525804349579</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3572,7 +3530,7 @@
         <v>112</v>
       </c>
       <c r="E42">
-        <v>0.7169716199737891</v>
+        <v>0.2830283800262109</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3589,7 +3547,7 @@
         <v>113</v>
       </c>
       <c r="E43">
-        <v>0.5296235461937053</v>
+        <v>0.4703764538062947</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3606,7 +3564,7 @@
         <v>83</v>
       </c>
       <c r="E44">
-        <v>0.5817473888572131</v>
+        <v>0.4182526111427869</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3623,7 +3581,7 @@
         <v>114</v>
       </c>
       <c r="E45">
-        <v>0.2734402269931298</v>
+        <v>0.6494916914186841</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3640,7 +3598,7 @@
         <v>115</v>
       </c>
       <c r="E46">
-        <v>0.5447155347869469</v>
+        <v>0.4552844652130531</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3657,7 +3615,7 @@
         <v>116</v>
       </c>
       <c r="E47">
-        <v>0.3996703878104906</v>
+        <v>0.6003296121895094</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3674,7 +3632,7 @@
         <v>117</v>
       </c>
       <c r="E48">
-        <v>0.4830219540117772</v>
+        <v>0.5169780459882228</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3691,7 +3649,7 @@
         <v>118</v>
       </c>
       <c r="E49">
-        <v>0.4559638659522299</v>
+        <v>0.5440361340477701</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3708,7 +3666,7 @@
         <v>119</v>
       </c>
       <c r="E50">
-        <v>0.6163966092695323</v>
+        <v>0.3836033907304677</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3725,7 +3683,7 @@
         <v>120</v>
       </c>
       <c r="E51">
-        <v>0.4129703102813193</v>
+        <v>0.5870296897186806</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3742,7 +3700,7 @@
         <v>78</v>
       </c>
       <c r="E52">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3759,7 +3717,7 @@
         <v>121</v>
       </c>
       <c r="E53">
-        <v>0.5968461487198252</v>
+        <v>0.4031538512801748</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3776,7 +3734,7 @@
         <v>122</v>
       </c>
       <c r="E54">
-        <v>0.5295280007048266</v>
+        <v>0.4704719992951734</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3793,7 +3751,7 @@
         <v>123</v>
       </c>
       <c r="E55">
-        <v>0.009051711866592559</v>
+        <v>0.9909482881334074</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3810,7 +3768,7 @@
         <v>124</v>
       </c>
       <c r="E56">
-        <v>0.5709804840947804</v>
+        <v>0.4290195159052196</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3827,7 +3785,7 @@
         <v>125</v>
       </c>
       <c r="E57">
-        <v>0.5360165694107119</v>
+        <v>0.4639834305892881</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3844,7 +3802,7 @@
         <v>126</v>
       </c>
       <c r="E58">
-        <v>0.1806580544923373</v>
+        <v>0.8193419455076627</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3861,7 +3819,7 @@
         <v>127</v>
       </c>
       <c r="E59">
-        <v>0.2510366795820772</v>
+        <v>0.7489633204179228</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3878,7 +3836,7 @@
         <v>128</v>
       </c>
       <c r="E60">
-        <v>0.6162155193557808</v>
+        <v>0.3837844806442192</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3895,7 +3853,7 @@
         <v>78</v>
       </c>
       <c r="E61">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3912,7 +3870,7 @@
         <v>129</v>
       </c>
       <c r="E62">
-        <v>0.6094015587104448</v>
+        <v>0.3905984412895552</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3929,7 +3887,7 @@
         <v>130</v>
       </c>
       <c r="E63">
-        <v>0.6896480234545649</v>
+        <v>0.3103519765454351</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3946,7 +3904,7 @@
         <v>131</v>
       </c>
       <c r="E64">
-        <v>0.7369576495201109</v>
+        <v>0.2630423504798891</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3963,7 +3921,7 @@
         <v>132</v>
       </c>
       <c r="E65">
-        <v>0.4637077314435231</v>
+        <v>0.5362922685564769</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3980,7 +3938,7 @@
         <v>133</v>
       </c>
       <c r="E66">
-        <v>0.6146947063778209</v>
+        <v>0.3853052936221791</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3997,7 +3955,7 @@
         <v>94</v>
       </c>
       <c r="E67">
-        <v>0.3817641327871025</v>
+        <v>0.6182358672128975</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4014,7 +3972,7 @@
         <v>134</v>
       </c>
       <c r="E68">
-        <v>0.3420959981468855</v>
+        <v>0.6579040018531146</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4031,7 +3989,7 @@
         <v>85</v>
       </c>
       <c r="E69">
-        <v>0.2898863146576947</v>
+        <v>0.7101136853423053</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4048,7 +4006,7 @@
         <v>135</v>
       </c>
       <c r="E70">
-        <v>0.2468243907326072</v>
+        <v>0.7531756092673928</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4065,7 +4023,7 @@
         <v>136</v>
       </c>
       <c r="E71">
-        <v>0.4260327059754662</v>
+        <v>0.5739672940245337</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4082,7 +4040,7 @@
         <v>137</v>
       </c>
       <c r="E72">
-        <v>0.1864870486262182</v>
+        <v>0.8135129513737818</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4099,7 +4057,7 @@
         <v>78</v>
       </c>
       <c r="E73">
-        <v>0.480493105089139</v>
+        <v>0.519506894910861</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4116,7 +4074,7 @@
         <v>138</v>
       </c>
       <c r="E74">
-        <v>0.6411037730033965</v>
+        <v>0.3588962269966035</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4133,7 +4091,7 @@
         <v>139</v>
       </c>
       <c r="E75">
-        <v>0.4290784110054919</v>
+        <v>0.5709215889945081</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4150,7 +4108,7 @@
         <v>140</v>
       </c>
       <c r="E76">
-        <v>-0.03857576508303786</v>
+        <v>0.521232705326127</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4167,7 +4125,7 @@
         <v>141</v>
       </c>
       <c r="E77">
-        <v>0.2459034689432955</v>
+        <v>0.7540965310567045</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4172,7 @@
         <v>214</v>
       </c>
       <c r="E2">
-        <v>0.4441569194365105</v>
+        <v>0.5558430805634895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4231,7 +4189,7 @@
         <v>215</v>
       </c>
       <c r="E3">
-        <v>0.4457509279379933</v>
+        <v>0.5542490720620068</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4248,7 +4206,7 @@
         <v>216</v>
       </c>
       <c r="E4">
-        <v>0.2758468913549758</v>
+        <v>0.7241531086450241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4265,7 +4223,7 @@
         <v>217</v>
       </c>
       <c r="E5">
-        <v>0.431306471311192</v>
+        <v>0.568693528688808</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4282,7 +4240,7 @@
         <v>218</v>
       </c>
       <c r="E6">
-        <v>0.4587197492454187</v>
+        <v>0.5412802507545813</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4299,7 +4257,7 @@
         <v>219</v>
       </c>
       <c r="E7">
-        <v>0.07593748509403592</v>
+        <v>0.924062514905964</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4316,7 +4274,7 @@
         <v>220</v>
       </c>
       <c r="E8">
-        <v>0.3434848903680078</v>
+        <v>0.6565151096319921</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4333,7 +4291,7 @@
         <v>221</v>
       </c>
       <c r="E9">
-        <v>0.2641874940814757</v>
+        <v>0.7358125059185243</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4350,7 +4308,7 @@
         <v>222</v>
       </c>
       <c r="E10">
-        <v>0.16942298470752</v>
+        <v>0.8305770152924801</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4367,7 +4325,7 @@
         <v>223</v>
       </c>
       <c r="E11">
-        <v>0.2248800659323811</v>
+        <v>0.7751199340676189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4384,7 +4342,7 @@
         <v>224</v>
       </c>
       <c r="E12">
-        <v>0.0784009070188388</v>
+        <v>0.9215990929811612</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4401,7 +4359,7 @@
         <v>225</v>
       </c>
       <c r="E13">
-        <v>0.3337276586478247</v>
+        <v>0.6662723413521754</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4418,7 +4376,7 @@
         <v>226</v>
       </c>
       <c r="E14">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4435,7 +4393,7 @@
         <v>227</v>
       </c>
       <c r="E15">
-        <v>0.3296246842244131</v>
+        <v>0.670375315775587</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4452,7 +4410,7 @@
         <v>228</v>
       </c>
       <c r="E16">
-        <v>0.4252267129445373</v>
+        <v>0.5747732870554627</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4469,7 +4427,7 @@
         <v>229</v>
       </c>
       <c r="E17">
-        <v>0.3531582379457956</v>
+        <v>0.6468417620542044</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4486,7 +4444,7 @@
         <v>217</v>
       </c>
       <c r="E18">
-        <v>0.431306471311192</v>
+        <v>0.568693528688808</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4503,7 +4461,7 @@
         <v>230</v>
       </c>
       <c r="E19">
-        <v>0.3500821913189183</v>
+        <v>0.6499178086810817</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4520,7 +4478,7 @@
         <v>231</v>
       </c>
       <c r="E20">
-        <v>-0.4169449729796751</v>
+        <v>1.416944972979675</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4537,7 +4495,7 @@
         <v>232</v>
       </c>
       <c r="E21">
-        <v>0.3062511723344692</v>
+        <v>0.6937488276655308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4554,7 +4512,7 @@
         <v>233</v>
       </c>
       <c r="E22">
-        <v>0.4996854833927697</v>
+        <v>0.5003145166072303</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4571,7 +4529,7 @@
         <v>226</v>
       </c>
       <c r="E23">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4588,7 +4546,7 @@
         <v>234</v>
       </c>
       <c r="E24">
-        <v>0.3225868799189563</v>
+        <v>0.6774131200810436</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4605,7 +4563,7 @@
         <v>235</v>
       </c>
       <c r="E25">
-        <v>0.440114121300398</v>
+        <v>0.559885878699602</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4622,7 +4580,7 @@
         <v>236</v>
       </c>
       <c r="E26">
-        <v>0.4273325017037564</v>
+        <v>0.5726674982962436</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4639,7 +4597,7 @@
         <v>226</v>
       </c>
       <c r="E27">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4656,7 +4614,7 @@
         <v>232</v>
       </c>
       <c r="E28">
-        <v>0.3062511723344692</v>
+        <v>0.6937488276655308</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4673,7 +4631,7 @@
         <v>237</v>
       </c>
       <c r="E29">
-        <v>0.4430547879265319</v>
+        <v>0.5569452120734681</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4690,7 +4648,7 @@
         <v>238</v>
       </c>
       <c r="E30">
-        <v>-0.03388180281446977</v>
+        <v>1.03388180281447</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4707,7 +4665,7 @@
         <v>239</v>
       </c>
       <c r="E31">
-        <v>0.1889219962571839</v>
+        <v>0.811078003742816</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4724,7 +4682,7 @@
         <v>240</v>
       </c>
       <c r="E32">
-        <v>0.4345272531526809</v>
+        <v>0.5654727468473191</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4741,7 +4699,7 @@
         <v>239</v>
       </c>
       <c r="E33">
-        <v>0.1889219962571839</v>
+        <v>0.811078003742816</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4758,7 +4716,7 @@
         <v>241</v>
       </c>
       <c r="E34">
-        <v>-0.0524905406087866</v>
+        <v>1.052490540608787</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4775,7 +4733,7 @@
         <v>238</v>
       </c>
       <c r="E35">
-        <v>-0.03388180281446977</v>
+        <v>1.03388180281447</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4792,7 +4750,7 @@
         <v>137</v>
       </c>
       <c r="E36">
-        <v>0.06746518722239939</v>
+        <v>0.9325348127776006</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4809,7 +4767,7 @@
         <v>242</v>
       </c>
       <c r="E37">
-        <v>0.2168775475914365</v>
+        <v>0.7831224524085636</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4826,7 +4784,7 @@
         <v>243</v>
       </c>
       <c r="E38">
-        <v>0.3897033929901315</v>
+        <v>0.6102966070098685</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4843,7 +4801,7 @@
         <v>108</v>
       </c>
       <c r="E39">
-        <v>0.3289679035292696</v>
+        <v>0.6710320964707304</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4860,7 +4818,7 @@
         <v>244</v>
       </c>
       <c r="E40">
-        <v>0.36720188346988</v>
+        <v>0.63279811653012</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4877,7 +4835,7 @@
         <v>216</v>
       </c>
       <c r="E41">
-        <v>0.2758468913549758</v>
+        <v>0.7241531086450241</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4894,7 +4852,7 @@
         <v>137</v>
       </c>
       <c r="E42">
-        <v>0.06746518722239939</v>
+        <v>0.9325348127776006</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4911,7 +4869,7 @@
         <v>245</v>
       </c>
       <c r="E43">
-        <v>0.04607687185505796</v>
+        <v>0.9539231281449421</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4928,7 +4886,7 @@
         <v>226</v>
       </c>
       <c r="E44">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4945,7 +4903,7 @@
         <v>246</v>
       </c>
       <c r="E45">
-        <v>0.504188598987619</v>
+        <v>0.495811401012381</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4962,7 +4920,7 @@
         <v>247</v>
       </c>
       <c r="E46">
-        <v>0.355885178118714</v>
+        <v>0.644114821881286</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4979,7 +4937,7 @@
         <v>248</v>
       </c>
       <c r="E47">
-        <v>0.3058683505652028</v>
+        <v>0.6941316494347971</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4996,7 +4954,7 @@
         <v>242</v>
       </c>
       <c r="E48">
-        <v>0.2168775475914365</v>
+        <v>0.7831224524085636</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5013,7 +4971,7 @@
         <v>249</v>
       </c>
       <c r="E49">
-        <v>0.463928673737917</v>
+        <v>0.5360713262620831</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5030,7 +4988,7 @@
         <v>250</v>
       </c>
       <c r="E50">
-        <v>0.4447695235463149</v>
+        <v>0.5552304764536851</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5047,7 +5005,7 @@
         <v>226</v>
       </c>
       <c r="E51">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5064,7 +5022,7 @@
         <v>251</v>
       </c>
       <c r="E52">
-        <v>0.2219660925416345</v>
+        <v>0.7780339074583654</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5081,7 +5039,7 @@
         <v>252</v>
       </c>
       <c r="E53">
-        <v>-0.3390736049239872</v>
+        <v>1.339073604923987</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5098,7 +5056,7 @@
         <v>253</v>
       </c>
       <c r="E54">
-        <v>0.2763937583532924</v>
+        <v>0.7236062416467076</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5115,7 +5073,7 @@
         <v>254</v>
       </c>
       <c r="E55">
-        <v>0.3501347638632764</v>
+        <v>0.6498652361367236</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5132,7 +5090,7 @@
         <v>243</v>
       </c>
       <c r="E56">
-        <v>0.3897033929901315</v>
+        <v>0.6102966070098685</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5149,7 +5107,7 @@
         <v>255</v>
       </c>
       <c r="E57">
-        <v>0.1162105297157238</v>
+        <v>0.8837894702842761</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5166,7 +5124,7 @@
         <v>256</v>
       </c>
       <c r="E58">
-        <v>0.4349974440375979</v>
+        <v>0.5650025559624021</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5183,7 +5141,7 @@
         <v>217</v>
       </c>
       <c r="E59">
-        <v>0.431306471311192</v>
+        <v>0.568693528688808</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5200,7 +5158,7 @@
         <v>219</v>
       </c>
       <c r="E60">
-        <v>0.07593748509403592</v>
+        <v>0.924062514905964</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5217,7 +5175,7 @@
         <v>257</v>
       </c>
       <c r="E61">
-        <v>0.4101864880497034</v>
+        <v>0.5898135119502966</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5234,7 +5192,7 @@
         <v>258</v>
       </c>
       <c r="E62">
-        <v>0.2809972070343074</v>
+        <v>0.7190027929656926</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5251,7 +5209,7 @@
         <v>259</v>
       </c>
       <c r="E63">
-        <v>0.5167990613038626</v>
+        <v>0.4832009386961374</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5268,7 +5226,7 @@
         <v>260</v>
       </c>
       <c r="E64">
-        <v>0.348355573215909</v>
+        <v>0.6516444267840911</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5285,7 +5243,7 @@
         <v>137</v>
       </c>
       <c r="E65">
-        <v>0.06746518722239939</v>
+        <v>0.9325348127776006</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5302,7 +5260,7 @@
         <v>261</v>
       </c>
       <c r="E66">
-        <v>0.2216979824327596</v>
+        <v>0.7783020175672404</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5319,7 +5277,7 @@
         <v>262</v>
       </c>
       <c r="E67">
-        <v>0.09561749505693921</v>
+        <v>0.9043825049430608</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5336,7 +5294,7 @@
         <v>263</v>
       </c>
       <c r="E68">
-        <v>0.2836028263992099</v>
+        <v>0.7163971736007901</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5353,7 +5311,7 @@
         <v>264</v>
       </c>
       <c r="E69">
-        <v>0.3156971312636783</v>
+        <v>0.6843028687363217</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5370,7 +5328,7 @@
         <v>226</v>
       </c>
       <c r="E70">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5387,7 +5345,7 @@
         <v>228</v>
       </c>
       <c r="E71">
-        <v>0.4252267129445373</v>
+        <v>0.5747732870554627</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5404,7 +5362,7 @@
         <v>265</v>
       </c>
       <c r="E72">
-        <v>0.3720925729381182</v>
+        <v>0.6279074270618819</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5421,7 +5379,7 @@
         <v>266</v>
       </c>
       <c r="E73">
-        <v>0.3232972422426174</v>
+        <v>0.6767027577573826</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5438,7 +5396,7 @@
         <v>267</v>
       </c>
       <c r="E74">
-        <v>0.4924616441442363</v>
+        <v>0.5075383558557637</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5455,7 +5413,7 @@
         <v>268</v>
       </c>
       <c r="E75">
-        <v>0.3664022512606627</v>
+        <v>0.6335977487393374</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5472,7 +5430,7 @@
         <v>269</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5489,7 +5447,7 @@
         <v>270</v>
       </c>
       <c r="E77">
-        <v>0.3508649514133078</v>
+        <v>0.6491350485866922</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5506,7 +5464,7 @@
         <v>271</v>
       </c>
       <c r="E78">
-        <v>0.3280141179485902</v>
+        <v>0.6719858820514097</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5523,7 +5481,7 @@
         <v>272</v>
       </c>
       <c r="E79">
-        <v>0.3820534916647073</v>
+        <v>0.6179465083352927</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5540,7 +5498,7 @@
         <v>273</v>
       </c>
       <c r="E80">
-        <v>0.3171634387134497</v>
+        <v>0.6828365612865503</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5557,7 +5515,7 @@
         <v>274</v>
       </c>
       <c r="E81">
-        <v>0.421802082291761</v>
+        <v>0.578197917708239</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5574,7 +5532,7 @@
         <v>237</v>
       </c>
       <c r="E82">
-        <v>0.4430547879265319</v>
+        <v>0.5569452120734681</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5591,7 +5549,7 @@
         <v>275</v>
       </c>
       <c r="E83">
-        <v>0.3074583217048681</v>
+        <v>0.6925416782951319</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5608,7 +5566,7 @@
         <v>226</v>
       </c>
       <c r="E84">
-        <v>0.3057021081136031</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5625,7 +5583,7 @@
         <v>237</v>
       </c>
       <c r="E85">
-        <v>0.4430547879265319</v>
+        <v>0.5569452120734681</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5642,7 +5600,7 @@
         <v>276</v>
       </c>
       <c r="E86">
-        <v>0.4164788616829878</v>
+        <v>0.5835211383170122</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5659,7 +5617,7 @@
         <v>277</v>
       </c>
       <c r="E87">
-        <v>0.120359086426702</v>
+        <v>0.879640913573298</v>
       </c>
     </row>
   </sheetData>
@@ -5706,7 +5664,7 @@
         <v>357</v>
       </c>
       <c r="E2">
-        <v>0.4737169819439485</v>
+        <v>0.5262830180560515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5723,7 +5681,7 @@
         <v>358</v>
       </c>
       <c r="E3">
-        <v>0.4100655375789072</v>
+        <v>0.5899344624210927</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5740,7 +5698,7 @@
         <v>359</v>
       </c>
       <c r="E4">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5757,7 +5715,7 @@
         <v>360</v>
       </c>
       <c r="E5">
-        <v>0.4444780440002434</v>
+        <v>0.5555219559997566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5774,7 +5732,7 @@
         <v>359</v>
       </c>
       <c r="E6">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5791,7 +5749,7 @@
         <v>361</v>
       </c>
       <c r="E7">
-        <v>0.440842939333396</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5808,7 +5766,7 @@
         <v>362</v>
       </c>
       <c r="E8">
-        <v>0.3645767809028838</v>
+        <v>0.6354232190971162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5825,7 +5783,7 @@
         <v>363</v>
       </c>
       <c r="E9">
-        <v>0.2726630833785798</v>
+        <v>0.7273369166214202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5839,10 +5797,10 @@
         <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E10">
-        <v>0.5876578978290407</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5856,10 +5814,10 @@
         <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E11">
-        <v>0.2620133960106217</v>
+        <v>0.7379866039893783</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5873,10 +5831,10 @@
         <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E12">
-        <v>0.4207281861173541</v>
+        <v>0.5792718138826458</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5890,10 +5848,10 @@
         <v>290</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E13">
-        <v>0.5204078092719011</v>
+        <v>0.4795921907280989</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5907,10 +5865,10 @@
         <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14">
-        <v>0.103823285266004</v>
+        <v>0.896176714733996</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5924,10 +5882,10 @@
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E15">
-        <v>0.4662987901857729</v>
+        <v>0.5337012098142271</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5941,10 +5899,10 @@
         <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16">
-        <v>0.3147071284876252</v>
+        <v>0.6852928715123748</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5958,10 +5916,10 @@
         <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E17">
-        <v>0.2791189442719282</v>
+        <v>0.7208810557280718</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5975,10 +5933,10 @@
         <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18">
-        <v>0.3957053048464531</v>
+        <v>0.6042946951535469</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5995,7 +5953,7 @@
         <v>362</v>
       </c>
       <c r="E19">
-        <v>0.3645767809028838</v>
+        <v>0.6354232190971162</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6009,10 +5967,10 @@
         <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20">
-        <v>0.2571871073541666</v>
+        <v>0.7428128926458335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6029,7 +5987,7 @@
         <v>362</v>
       </c>
       <c r="E21">
-        <v>0.3645767809028838</v>
+        <v>0.6354232190971162</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6043,10 +6001,10 @@
         <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E22">
-        <v>0.4432259271793529</v>
+        <v>0.5567740728206472</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6060,10 +6018,10 @@
         <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E23">
-        <v>0.3954297721947572</v>
+        <v>0.6045702278052427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6077,10 +6035,10 @@
         <v>299</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24">
-        <v>0.3282269138424395</v>
+        <v>0.6717730861575605</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6097,7 +6055,7 @@
         <v>363</v>
       </c>
       <c r="E25">
-        <v>0.2726630833785798</v>
+        <v>0.7273369166214202</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6111,10 +6069,10 @@
         <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E26">
-        <v>0.2838368140382608</v>
+        <v>0.7161631859617392</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6128,10 +6086,10 @@
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E27">
-        <v>0.2233504832407884</v>
+        <v>0.4714986057096325</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6148,7 +6106,7 @@
         <v>359</v>
       </c>
       <c r="E28">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6165,7 +6123,7 @@
         <v>359</v>
       </c>
       <c r="E29">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6182,7 +6140,7 @@
         <v>361</v>
       </c>
       <c r="E30">
-        <v>0.440842939333396</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6196,10 +6154,10 @@
         <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31">
-        <v>0.5366705522747547</v>
+        <v>0.4633294477252453</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6213,10 +6171,10 @@
         <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E32">
-        <v>0.4683574354152426</v>
+        <v>0.5316425645847574</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6230,10 +6188,10 @@
         <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E33">
-        <v>0.14502720946739</v>
+        <v>0.85497279053261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6247,10 +6205,10 @@
         <v>308</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E34">
-        <v>0.3916285231242254</v>
+        <v>0.6083714768757746</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6267,7 +6225,7 @@
         <v>361</v>
       </c>
       <c r="E35">
-        <v>0.440842939333396</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6284,7 +6242,7 @@
         <v>363</v>
       </c>
       <c r="E36">
-        <v>0.2726630833785798</v>
+        <v>0.7273369166214202</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6298,10 +6256,10 @@
         <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E37">
-        <v>0.5336984274831168</v>
+        <v>0.4663015725168832</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6315,10 +6273,10 @@
         <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E38">
-        <v>0.4628955181802448</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6335,7 +6293,7 @@
         <v>363</v>
       </c>
       <c r="E39">
-        <v>0.2726630833785798</v>
+        <v>0.7273369166214202</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6352,7 +6310,7 @@
         <v>230</v>
       </c>
       <c r="E40">
-        <v>0.3936555971523932</v>
+        <v>0.6063444028476068</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6366,10 +6324,10 @@
         <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E41">
-        <v>0.171582523373351</v>
+        <v>0.828417476626649</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6383,10 +6341,10 @@
         <v>313</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42">
-        <v>0.5817614438696447</v>
+        <v>0.4182385561303553</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6400,10 +6358,10 @@
         <v>314</v>
       </c>
       <c r="D43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E43">
-        <v>0.4232493760418164</v>
+        <v>0.5767506239581836</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6417,10 +6375,10 @@
         <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E44">
-        <v>0.3360445855933208</v>
+        <v>0.6639554144066792</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6434,10 +6392,10 @@
         <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E45">
-        <v>0.4415423723354569</v>
+        <v>0.5584576276645431</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6451,10 +6409,10 @@
         <v>317</v>
       </c>
       <c r="D46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E46">
-        <v>0.5177687440693526</v>
+        <v>0.4822312559306474</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6468,10 +6426,10 @@
         <v>318</v>
       </c>
       <c r="D47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E47">
-        <v>0.4248561562691653</v>
+        <v>0.5751438437308347</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6485,10 +6443,10 @@
         <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E48">
-        <v>0.4734664991588683</v>
+        <v>0.5265335008411317</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6502,10 +6460,10 @@
         <v>320</v>
       </c>
       <c r="D49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E49">
-        <v>0.5280541260777981</v>
+        <v>0.4719458739222019</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6519,10 +6477,10 @@
         <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E50">
-        <v>0.4414770570731012</v>
+        <v>0.5585229429268987</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6536,10 +6494,10 @@
         <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E51">
-        <v>0.4049373052108279</v>
+        <v>0.5950626947891721</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6553,10 +6511,10 @@
         <v>323</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52">
-        <v>0.1609840575031096</v>
+        <v>0.8390159424968904</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6570,10 +6528,10 @@
         <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53">
-        <v>0.3322160439425566</v>
+        <v>0.6677839560574435</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6587,10 +6545,10 @@
         <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E54">
-        <v>0.5837459060653326</v>
+        <v>0.4162540939346674</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6604,10 +6562,10 @@
         <v>326</v>
       </c>
       <c r="D55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E55">
-        <v>0.3629552025565081</v>
+        <v>0.6370447974434919</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6621,10 +6579,10 @@
         <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E56">
-        <v>0.1085249899599503</v>
+        <v>0.8914750100400497</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6638,10 +6596,10 @@
         <v>311</v>
       </c>
       <c r="D57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E57">
-        <v>0.4628955181802448</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6655,10 +6613,10 @@
         <v>328</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E58">
-        <v>0.5195403943819695</v>
+        <v>0.4804596056180305</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6672,10 +6630,10 @@
         <v>329</v>
       </c>
       <c r="D59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E59">
-        <v>0.4806817163398398</v>
+        <v>0.5193182836601602</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6689,10 +6647,10 @@
         <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E60">
-        <v>0.5464857247222717</v>
+        <v>0.4535142752777283</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6709,7 +6667,7 @@
         <v>361</v>
       </c>
       <c r="E61">
-        <v>0.440842939333396</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6723,10 +6681,10 @@
         <v>331</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E62">
-        <v>0.2790251564187562</v>
+        <v>0.7209748435812438</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6740,10 +6698,10 @@
         <v>332</v>
       </c>
       <c r="D63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E63">
-        <v>0.2695832843096373</v>
+        <v>0.7304167156903627</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6757,10 +6715,10 @@
         <v>333</v>
       </c>
       <c r="D64" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="E64">
-        <v>0.6319568653049934</v>
+        <v>0.5899344624210927</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6774,10 +6732,10 @@
         <v>334</v>
       </c>
       <c r="D65" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E65">
-        <v>0.5785991445448759</v>
+        <v>0.8779681216760559</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6791,10 +6749,10 @@
         <v>335</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66">
-        <v>0.2791189442719282</v>
+        <v>0.7208810557280718</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6808,10 +6766,10 @@
         <v>336</v>
       </c>
       <c r="D67" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E67">
-        <v>0.4685193089263758</v>
+        <v>0.5314806910736243</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6825,10 +6783,10 @@
         <v>337</v>
       </c>
       <c r="D68" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E68">
-        <v>0.5501779504797847</v>
+        <v>0.4498220495202153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6842,10 +6800,10 @@
         <v>338</v>
       </c>
       <c r="D69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E69">
-        <v>0.4806817163398398</v>
+        <v>0.5193182836601602</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6859,10 +6817,10 @@
         <v>339</v>
       </c>
       <c r="D70" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E70">
-        <v>0.3551019003946756</v>
+        <v>0.6448980996053244</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6876,10 +6834,10 @@
         <v>340</v>
       </c>
       <c r="D71" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E71">
-        <v>0.3244872998322036</v>
+        <v>0.6755127001677963</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6896,7 +6854,7 @@
         <v>269</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6910,10 +6868,10 @@
         <v>341</v>
       </c>
       <c r="D73" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E73">
-        <v>0.4419102424368105</v>
+        <v>0.6961021711351905</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6927,10 +6885,10 @@
         <v>342</v>
       </c>
       <c r="D74" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="E74">
-        <v>0.4592843618482738</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6944,10 +6902,10 @@
         <v>343</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E75">
-        <v>0.4346506660781637</v>
+        <v>0.5751438437308347</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6961,10 +6919,10 @@
         <v>344</v>
       </c>
       <c r="D76" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E76">
-        <v>0.4226540296816909</v>
+        <v>0.6136487742759178</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6978,10 +6936,10 @@
         <v>345</v>
       </c>
       <c r="D77" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E77">
-        <v>0.1718090048893284</v>
+        <v>0.728444119630151</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6998,7 +6956,7 @@
         <v>359</v>
       </c>
       <c r="E78">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -7015,7 +6973,7 @@
         <v>361</v>
       </c>
       <c r="E79">
-        <v>0.440842939333396</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7029,10 +6987,10 @@
         <v>348</v>
       </c>
       <c r="D80" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E80">
-        <v>0.3795841356429591</v>
+        <v>0.6204158643570409</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -7046,10 +7004,10 @@
         <v>349</v>
       </c>
       <c r="D81" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E81">
-        <v>-0.3892485253822836</v>
+        <v>0.5842011401722025</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -7063,10 +7021,10 @@
         <v>350</v>
       </c>
       <c r="D82" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E82">
-        <v>0.3613276896668814</v>
+        <v>0.6386723103331186</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7083,7 +7041,7 @@
         <v>359</v>
       </c>
       <c r="E83">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -7097,10 +7055,10 @@
         <v>352</v>
       </c>
       <c r="D84" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E84">
-        <v>0.3967198376418456</v>
+        <v>0.6032801623581544</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -7114,10 +7072,10 @@
         <v>353</v>
       </c>
       <c r="D85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85">
-        <v>0.171582523373351</v>
+        <v>0.828417476626649</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -7131,10 +7089,10 @@
         <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E86">
-        <v>0.4628955181802448</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -7151,7 +7109,7 @@
         <v>359</v>
       </c>
       <c r="E87">
-        <v>0.3089348356603411</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -7168,7 +7126,7 @@
         <v>112</v>
       </c>
       <c r="E88">
-        <v>0.5869072466955068</v>
+        <v>0.4130927533044932</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -7182,10 +7140,10 @@
         <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E89">
-        <v>0.4367210898929194</v>
+        <v>0.5632789101070805</v>
       </c>
     </row>
   </sheetData>
@@ -7223,16 +7181,16 @@
         <v>1476</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E2">
-        <v>0.4365631729319259</v>
+        <v>0.5634368270680741</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7240,16 +7198,16 @@
         <v>1476</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
       </c>
       <c r="E3">
-        <v>0.2226131284401611</v>
+        <v>0.7773868715598389</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7257,16 +7215,16 @@
         <v>1476</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
       </c>
       <c r="E4">
-        <v>0.4845654148722135</v>
+        <v>0.5154345851277865</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7274,16 +7232,16 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" t="s">
         <v>422</v>
       </c>
-      <c r="C5" t="s">
-        <v>426</v>
-      </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E5">
-        <v>0.6572412311209672</v>
+        <v>0.3427587688790328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7291,16 +7249,16 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E6">
-        <v>0.6012653794301934</v>
+        <v>0.3987346205698066</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7308,16 +7266,16 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E7">
-        <v>0.4963417500396693</v>
+        <v>0.5036582499603306</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7325,16 +7283,16 @@
         <v>1718</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E8">
-        <v>0.7162978636439176</v>
+        <v>0.2837021363560824</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7342,16 +7300,16 @@
         <v>1691</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E9">
-        <v>0.6572412311209672</v>
+        <v>0.3427587688790328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7359,16 +7317,16 @@
         <v>1691</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E10">
-        <v>0.6012653794301934</v>
+        <v>0.3987346205698066</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7376,16 +7334,16 @@
         <v>1691</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E11">
-        <v>0.4175978853224033</v>
+        <v>0.5824021146775967</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7393,16 +7351,16 @@
         <v>1691</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E12">
-        <v>0.5520021907303185</v>
+        <v>0.4479978092696815</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7410,16 +7368,16 @@
         <v>1691</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E13">
-        <v>0.3039019843011671</v>
+        <v>0.6960980156988329</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7427,16 +7385,16 @@
         <v>1678</v>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E14">
-        <v>0.7037846758532096</v>
+        <v>0.2962153241467904</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7444,16 +7402,16 @@
         <v>1678</v>
       </c>
       <c r="B15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E15">
-        <v>0.6482305546876246</v>
+        <v>0.3517694453123754</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7461,7 +7419,7 @@
         <v>1678</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -7470,7 +7428,7 @@
         <v>137</v>
       </c>
       <c r="E16">
-        <v>0.2226131284401611</v>
+        <v>0.7773868715598389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7478,16 +7436,16 @@
         <v>1678</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
         <v>256</v>
       </c>
       <c r="E17">
-        <v>0.6908428686514388</v>
+        <v>0.3091571313485612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7495,16 +7453,16 @@
         <v>1678</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E18">
-        <v>0.1020336285424867</v>
+        <v>0.8979663714575133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7512,16 +7470,16 @@
         <v>1678</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E19">
-        <v>0.475149835729466</v>
+        <v>0.5248501642705341</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7529,16 +7487,16 @@
         <v>1690</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E20">
-        <v>0.5115981817674614</v>
+        <v>0.4884018182325386</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7546,16 +7504,16 @@
         <v>1690</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E21">
-        <v>0.7284909062859662</v>
+        <v>0.2715090937140338</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7563,7 +7521,7 @@
         <v>1690</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
@@ -7572,7 +7530,7 @@
         <v>231</v>
       </c>
       <c r="E22">
-        <v>-0.4101146586574791</v>
+        <v>1.410114658657479</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7580,16 +7538,16 @@
         <v>1738</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E23">
-        <v>0.5115981817674614</v>
+        <v>0.4884018182325386</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7597,16 +7555,16 @@
         <v>1738</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E24">
-        <v>0.3701774126836562</v>
+        <v>0.6298225873163439</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7614,16 +7572,16 @@
         <v>1738</v>
       </c>
       <c r="B25" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
         <v>231</v>
       </c>
       <c r="E25">
-        <v>-0.4101146586574791</v>
+        <v>1.410114658657479</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7631,16 +7589,16 @@
         <v>1713</v>
       </c>
       <c r="B26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" t="s">
         <v>422</v>
       </c>
-      <c r="C26" t="s">
-        <v>426</v>
-      </c>
       <c r="D26" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E26">
-        <v>0.6572412311209672</v>
+        <v>0.3427587688790328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7648,16 +7606,16 @@
         <v>1713</v>
       </c>
       <c r="B27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E27">
-        <v>0.3149035950894689</v>
+        <v>0.685096404910531</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7665,16 +7623,16 @@
         <v>1713</v>
       </c>
       <c r="B28" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E28">
-        <v>0.6075521201778582</v>
+        <v>0.3924478798221418</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7682,16 +7640,16 @@
         <v>1713</v>
       </c>
       <c r="B29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E29">
-        <v>0.6040330578404626</v>
+        <v>0.3959669421595374</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7699,16 +7657,16 @@
         <v>1793</v>
       </c>
       <c r="B30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E30">
-        <v>0.6304068118526982</v>
+        <v>0.3733996159241169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7716,16 +7674,16 @@
         <v>1793</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E31">
-        <v>0.4521523019202554</v>
+        <v>0.5367733391509204</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7733,16 +7691,16 @@
         <v>1793</v>
       </c>
       <c r="B32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E32">
-        <v>0.5680384312209912</v>
+        <v>0.5882743753462218</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7750,16 +7708,16 @@
         <v>1793</v>
       </c>
       <c r="B33" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E33">
-        <v>0.6555877883346712</v>
+        <v>0.3615910221179356</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7767,16 +7725,16 @@
         <v>1762</v>
       </c>
       <c r="B34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D34" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E34">
-        <v>0.5115981817674614</v>
+        <v>0.4884018182325386</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7784,16 +7742,16 @@
         <v>1762</v>
       </c>
       <c r="B35" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E35">
-        <v>0.5265628813749512</v>
+        <v>0.4734371186250488</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7801,7 +7759,7 @@
         <v>1762</v>
       </c>
       <c r="B36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C36" t="s">
         <v>160</v>
@@ -7810,7 +7768,7 @@
         <v>231</v>
       </c>
       <c r="E36">
-        <v>-0.4101146586574791</v>
+        <v>1.410114658657479</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7818,16 +7776,16 @@
         <v>1762</v>
       </c>
       <c r="B37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E37">
-        <v>0.4967946849417324</v>
+        <v>0.5032053150582676</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7835,16 +7793,16 @@
         <v>1731</v>
       </c>
       <c r="B38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E38">
-        <v>0.6899392950331471</v>
+        <v>0.3100607049668529</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7852,7 +7810,7 @@
         <v>1731</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -7861,7 +7819,7 @@
         <v>137</v>
       </c>
       <c r="E39">
-        <v>0.2226131284401611</v>
+        <v>0.7773868715598389</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7869,16 +7827,16 @@
         <v>1731</v>
       </c>
       <c r="B40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E40">
-        <v>0.316760084063434</v>
+        <v>0.6832399159365661</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7886,16 +7844,16 @@
         <v>1722</v>
       </c>
       <c r="B41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E41">
-        <v>0.6332836877958894</v>
+        <v>0.3667163122041106</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -7903,16 +7861,16 @@
         <v>1722</v>
       </c>
       <c r="B42" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E42">
-        <v>0.6827609982557113</v>
+        <v>0.3172390017442887</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7920,16 +7878,16 @@
         <v>1722</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E43">
-        <v>0.5014889917096121</v>
+        <v>0.4985110082903879</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7937,16 +7895,16 @@
         <v>1722</v>
       </c>
       <c r="B44" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E44">
-        <v>0.3634915845878184</v>
+        <v>0.6365084154121816</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7954,16 +7912,16 @@
         <v>1779</v>
       </c>
       <c r="B45" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E45">
-        <v>0.6572412311209672</v>
+        <v>0.3427587688790328</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7971,16 +7929,16 @@
         <v>1779</v>
       </c>
       <c r="B46" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D46" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E46">
-        <v>0.7349042214819831</v>
+        <v>0.2650957785180169</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7988,16 +7946,16 @@
         <v>1779</v>
       </c>
       <c r="B47" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E47">
-        <v>0.6055967404899243</v>
+        <v>0.3944032595100757</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -8005,16 +7963,16 @@
         <v>1779</v>
       </c>
       <c r="B48" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E48">
-        <v>0.5100206568169737</v>
+        <v>0.4899793431830263</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8022,16 +7980,16 @@
         <v>1779</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E49">
-        <v>0.3226007050144992</v>
+        <v>0.6773992949855008</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8039,16 +7997,16 @@
         <v>1733</v>
       </c>
       <c r="B50" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D50" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E50">
-        <v>0.5115981817674614</v>
+        <v>0.4884018182325386</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -8056,16 +8014,16 @@
         <v>1733</v>
       </c>
       <c r="B51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E51">
-        <v>0.5265628813749512</v>
+        <v>0.4734371186250488</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8073,16 +8031,16 @@
         <v>1733</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
       </c>
       <c r="E52">
-        <v>0.5659578215734422</v>
+        <v>0.4340421784265578</v>
       </c>
     </row>
   </sheetData>
@@ -8120,16 +8078,16 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E2">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8137,16 +8095,16 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E3">
-        <v>0.786091376674787</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8154,16 +8112,16 @@
         <v>1698</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E4">
-        <v>0.6320630979912345</v>
+        <v>0.3679369020087655</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8171,16 +8129,16 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C5" t="s">
         <v>501</v>
       </c>
-      <c r="C5" t="s">
-        <v>505</v>
-      </c>
       <c r="D5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E5">
-        <v>0.7408072798440263</v>
+        <v>0.2591927201559737</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8188,16 +8146,16 @@
         <v>1716</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E6">
-        <v>0.755247086040589</v>
+        <v>0.244752913959411</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8205,16 +8163,16 @@
         <v>1716</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E7">
-        <v>0.3621777402900577</v>
+        <v>0.6378222597099423</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8222,16 +8180,16 @@
         <v>1716</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D8" t="s">
         <v>137</v>
       </c>
       <c r="E8">
-        <v>0.2879665110817043</v>
+        <v>0.7120334889182957</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8239,16 +8197,16 @@
         <v>1716</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E9">
-        <v>0.2374785131244594</v>
+        <v>0.7625214868755406</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8256,16 +8214,16 @@
         <v>1716</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
         <v>269</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8273,16 +8231,16 @@
         <v>1718</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E11">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8290,16 +8248,16 @@
         <v>1718</v>
       </c>
       <c r="B12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E12">
-        <v>0.786091376674787</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8307,16 +8265,16 @@
         <v>1718</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E13">
-        <v>0.7356763446797352</v>
+        <v>0.2643236553202648</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8324,16 +8282,16 @@
         <v>1718</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E14">
-        <v>0.7615170504293126</v>
+        <v>0.2384829495706874</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8341,16 +8299,16 @@
         <v>1747</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E15">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8358,16 +8316,16 @@
         <v>1747</v>
       </c>
       <c r="B16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E16">
-        <v>0.798129234397693</v>
+        <v>0.201870765602307</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8375,16 +8333,16 @@
         <v>1747</v>
       </c>
       <c r="B17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E17">
-        <v>0.3916430983507033</v>
+        <v>0.6083569016492967</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8392,7 +8350,7 @@
         <v>1747</v>
       </c>
       <c r="B18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -8401,7 +8359,7 @@
         <v>116</v>
       </c>
       <c r="E18">
-        <v>0.46883601492635</v>
+        <v>0.53116398507365</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8409,16 +8367,16 @@
         <v>1747</v>
       </c>
       <c r="B19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E19">
-        <v>0.5550163894969983</v>
+        <v>0.4449836105030017</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8426,16 +8384,16 @@
         <v>1747</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E20">
-        <v>0.7175944010906515</v>
+        <v>0.2824055989093485</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8443,16 +8401,16 @@
         <v>1747</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E21">
-        <v>0.559681823116956</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8460,16 +8418,16 @@
         <v>1741</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E22">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8477,16 +8435,16 @@
         <v>1741</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D23" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E23">
-        <v>0.7315399515307932</v>
+        <v>0.2824055989093485</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8494,16 +8452,16 @@
         <v>1741</v>
       </c>
       <c r="B24" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D24" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E24">
-        <v>0.6130087570010689</v>
+        <v>0.3869912429989311</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8511,7 +8469,7 @@
         <v>1741</v>
       </c>
       <c r="B25" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -8520,7 +8478,7 @@
         <v>138</v>
       </c>
       <c r="E25">
-        <v>0.6932028232794756</v>
+        <v>0.3067971767205244</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8528,16 +8486,16 @@
         <v>1741</v>
       </c>
       <c r="B26" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E26">
-        <v>0.5112199813972386</v>
+        <v>0.4887800186027614</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8545,16 +8503,16 @@
         <v>1691</v>
       </c>
       <c r="B27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C27" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E27">
-        <v>0.5505977826822795</v>
+        <v>0.4494022173177205</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8562,16 +8520,16 @@
         <v>1691</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C28" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E28">
-        <v>0.6649712584464884</v>
+        <v>0.3350287415535116</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8579,16 +8537,16 @@
         <v>1691</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D29" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E29">
-        <v>0.1818093993176076</v>
+        <v>0.8181906006823925</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8596,16 +8554,16 @@
         <v>1691</v>
       </c>
       <c r="B30" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D30" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E30">
-        <v>0.7425168677073692</v>
+        <v>0.2574831322926308</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8613,16 +8571,16 @@
         <v>1691</v>
       </c>
       <c r="B31" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C31" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D31" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E31">
-        <v>0.5622967842256956</v>
+        <v>0.4377032157743044</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8630,16 +8588,16 @@
         <v>1678</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D32" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E32">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8647,16 +8605,16 @@
         <v>1678</v>
       </c>
       <c r="B33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C33" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E33">
-        <v>0.5930571630086284</v>
+        <v>0.4069428369913716</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8664,16 +8622,16 @@
         <v>1678</v>
       </c>
       <c r="B34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C34" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E34">
-        <v>0.786091376674787</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8681,16 +8639,16 @@
         <v>1678</v>
       </c>
       <c r="B35" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C35" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E35">
-        <v>0.717540654609011</v>
+        <v>0.282459345390989</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8698,16 +8656,16 @@
         <v>1678</v>
       </c>
       <c r="B36" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E36">
-        <v>0.3441731064519378</v>
+        <v>0.6558268935480622</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8715,16 +8673,16 @@
         <v>1678</v>
       </c>
       <c r="B37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D37" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E37">
-        <v>0.7573324949560573</v>
+        <v>0.2426675050439427</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8732,16 +8690,16 @@
         <v>1678</v>
       </c>
       <c r="B38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C38" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E38">
-        <v>0.6270084728850908</v>
+        <v>0.3729915271149092</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8749,16 +8707,16 @@
         <v>1780</v>
       </c>
       <c r="B39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D39" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E39">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8766,7 +8724,7 @@
         <v>1780</v>
       </c>
       <c r="B40" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C40" t="s">
         <v>346</v>
@@ -8775,7 +8733,7 @@
         <v>359</v>
       </c>
       <c r="E40">
-        <v>0.4574678978173909</v>
+        <v>0.5425321021826091</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8783,16 +8741,16 @@
         <v>1780</v>
       </c>
       <c r="B41" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C41" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D41" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E41">
-        <v>0.6919300103164345</v>
+        <v>0.3080699896835655</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -8800,16 +8758,16 @@
         <v>1780</v>
       </c>
       <c r="B42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C42" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D42" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E42">
-        <v>0.559681823116956</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8817,16 +8775,16 @@
         <v>1702</v>
       </c>
       <c r="B43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D43" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E43">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8834,16 +8792,16 @@
         <v>1702</v>
       </c>
       <c r="B44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C44" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D44" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E44">
-        <v>-0.06864258457720686</v>
+        <v>0.3096994713609652</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8851,16 +8809,16 @@
         <v>1702</v>
       </c>
       <c r="B45" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C45" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D45" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E45">
-        <v>0.6320630979912345</v>
+        <v>0.3679369020087655</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8868,16 +8826,16 @@
         <v>1702</v>
       </c>
       <c r="B46" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C46" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D46" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E46">
-        <v>0.559681823116956</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -8885,16 +8843,16 @@
         <v>1702</v>
       </c>
       <c r="B47" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D47" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E47">
-        <v>0.7709335323813375</v>
+        <v>0.2290664676186625</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -8902,7 +8860,7 @@
         <v>1702</v>
       </c>
       <c r="B48" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -8911,7 +8869,7 @@
         <v>108</v>
       </c>
       <c r="E48">
-        <v>0.6022660437077171</v>
+        <v>0.3977339562922829</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8919,16 +8877,16 @@
         <v>1769</v>
       </c>
       <c r="B49" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C49" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E49">
-        <v>0.5853322980845179</v>
+        <v>0.4146677019154821</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8936,16 +8894,16 @@
         <v>1769</v>
       </c>
       <c r="B50" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D50" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E50">
-        <v>0.3048414757050193</v>
+        <v>0.6951585242949807</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -8953,16 +8911,16 @@
         <v>1769</v>
       </c>
       <c r="B51" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C51" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D51" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E51">
-        <v>0.2306734236058219</v>
+        <v>0.7693265763941781</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8970,16 +8928,16 @@
         <v>1738</v>
       </c>
       <c r="B52" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D52" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E52">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -8987,7 +8945,7 @@
         <v>1738</v>
       </c>
       <c r="B53" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C53" t="s">
         <v>351</v>
@@ -8996,7 +8954,7 @@
         <v>359</v>
       </c>
       <c r="E53">
-        <v>0.4574678978173909</v>
+        <v>0.5425321021826091</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9004,16 +8962,16 @@
         <v>1738</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C54" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D54" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E54">
-        <v>0.5673941228600347</v>
+        <v>0.4326058771399653</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9021,16 +8979,16 @@
         <v>1692</v>
       </c>
       <c r="B55" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D55" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E55">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9038,16 +8996,16 @@
         <v>1692</v>
       </c>
       <c r="B56" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C56" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D56" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E56">
-        <v>0.5716321397376095</v>
+        <v>0.4283678602623905</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9055,16 +9013,16 @@
         <v>1692</v>
       </c>
       <c r="B57" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C57" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D57" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E57">
-        <v>0.8122962964426557</v>
+        <v>0.1877037035573443</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9072,16 +9030,16 @@
         <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C58" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D58" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E58">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9089,16 +9047,16 @@
         <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C59" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D59" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E59">
-        <v>0.7748404431170589</v>
+        <v>0.2251595568829411</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9106,16 +9064,16 @@
         <v>1713</v>
       </c>
       <c r="B60" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C60" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D60" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E60">
-        <v>0.7729325555005955</v>
+        <v>0.2270674444994045</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9123,16 +9081,16 @@
         <v>1764</v>
       </c>
       <c r="B61" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C61" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E61">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9140,16 +9098,16 @@
         <v>1764</v>
       </c>
       <c r="B62" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C62" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E62">
-        <v>0.786091376674787</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9157,16 +9115,16 @@
         <v>1764</v>
       </c>
       <c r="B63" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C63" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D63" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E63">
-        <v>0.7595546371843346</v>
+        <v>0.2404453628156654</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9174,16 +9132,16 @@
         <v>1764</v>
       </c>
       <c r="B64" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C64" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D64" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E64">
-        <v>0.7709335323813375</v>
+        <v>0.2290664676186625</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -9191,16 +9149,16 @@
         <v>1764</v>
       </c>
       <c r="B65" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C65" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D65" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E65">
-        <v>0.6837130319688073</v>
+        <v>0.3162869680311927</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -9208,16 +9166,16 @@
         <v>1764</v>
       </c>
       <c r="B66" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C66" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D66" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E66">
-        <v>0.3271264813027826</v>
+        <v>0.5538359453674728</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -9225,16 +9183,16 @@
         <v>1761</v>
       </c>
       <c r="B67" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C67" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E67">
-        <v>0.5505977826822795</v>
+        <v>0.4494022173177205</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -9242,7 +9200,7 @@
         <v>1761</v>
       </c>
       <c r="B68" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
@@ -9251,7 +9209,7 @@
         <v>137</v>
       </c>
       <c r="E68">
-        <v>0.2879665110817043</v>
+        <v>0.7120334889182957</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -9259,16 +9217,16 @@
         <v>1761</v>
       </c>
       <c r="B69" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C69" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D69" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E69">
-        <v>0.06682506189096413</v>
+        <v>0.9331749381090358</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9276,16 +9234,16 @@
         <v>1761</v>
       </c>
       <c r="B70" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C70" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D70" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="E70">
-        <v>0.4547507053579313</v>
+        <v>0.5452492946420686</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -9293,16 +9251,16 @@
         <v>1761</v>
       </c>
       <c r="B71" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C71" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D71" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E71">
-        <v>0.4015941357968662</v>
+        <v>0.5984058642031338</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -9310,16 +9268,16 @@
         <v>1761</v>
       </c>
       <c r="B72" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C72" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D72" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E72">
-        <v>0.4604893884119576</v>
+        <v>0.5395106115880424</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -9327,16 +9285,16 @@
         <v>1761</v>
       </c>
       <c r="B73" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C73" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D73" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E73">
-        <v>0.5035624186697742</v>
+        <v>0.4964375813302258</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -9344,16 +9302,16 @@
         <v>1793</v>
       </c>
       <c r="B74" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C74" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D74" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="E74">
-        <v>0.7798117297741052</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -9361,16 +9319,16 @@
         <v>1793</v>
       </c>
       <c r="B75" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C75" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D75" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E75">
-        <v>0.8217705534277062</v>
+        <v>0.2031259838440961</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9378,16 +9336,16 @@
         <v>1793</v>
       </c>
       <c r="B76" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C76" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D76" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E76">
-        <v>0.7194387368754586</v>
+        <v>0.5597868388875291</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9395,16 +9353,16 @@
         <v>1793</v>
       </c>
       <c r="B77" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C77" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D77" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E77">
-        <v>0.7498433662789911</v>
+        <v>0.2501566337210089</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -9412,16 +9370,16 @@
         <v>1793</v>
       </c>
       <c r="B78" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C78" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D78" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E78">
-        <v>0.5222430302292443</v>
+        <v>0.4777569697707557</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -9429,16 +9387,16 @@
         <v>1722</v>
       </c>
       <c r="B79" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C79" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D79" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E79">
-        <v>0.7228513909437413</v>
+        <v>0.2771486090562587</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -9446,16 +9404,16 @@
         <v>1722</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C80" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D80" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E80">
-        <v>0.648125853844545</v>
+        <v>0.351874146155455</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -9463,16 +9421,16 @@
         <v>1779</v>
       </c>
       <c r="B81" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C81" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D81" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E81">
-        <v>0.6408754914311413</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -9480,16 +9438,16 @@
         <v>1779</v>
       </c>
       <c r="B82" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C82" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D82" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E82">
-        <v>0.7395643596463981</v>
+        <v>0.2604356403536019</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9497,16 +9455,16 @@
         <v>1779</v>
       </c>
       <c r="B83" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C83" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D83" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E83">
-        <v>0.4789965331541682</v>
+        <v>0.5210034668458319</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -9514,16 +9472,16 @@
         <v>1779</v>
       </c>
       <c r="B84" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C84" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D84" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E84">
-        <v>0.1044709050270466</v>
+        <v>0.8955290949729534</v>
       </c>
     </row>
   </sheetData>
@@ -9561,16 +9519,16 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E2">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9578,16 +9536,16 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E3">
-        <v>0.5738690407820891</v>
+        <v>0.4261309592179109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9595,16 +9553,16 @@
         <v>1718</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D4" t="s">
         <v>219</v>
       </c>
       <c r="E4">
-        <v>0.2422794743102564</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9612,16 +9570,16 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E5">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9629,16 +9587,16 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C6" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E6">
-        <v>0.6692836505710187</v>
+        <v>0.3307163494289813</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9646,16 +9604,16 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E7">
-        <v>0.6450776585761349</v>
+        <v>0.3549223414238651</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9663,16 +9621,16 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" t="s">
         <v>626</v>
       </c>
-      <c r="C8" t="s">
-        <v>633</v>
-      </c>
       <c r="D8" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E8">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9680,16 +9638,16 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E9">
-        <v>0.251585549200915</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9697,16 +9655,16 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C10" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E10">
-        <v>-0.07205529265191585</v>
+        <v>1.072055292651916</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9714,16 +9672,16 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D11" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E11">
-        <v>0.3644047278111422</v>
+        <v>0.6355952721888578</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9731,16 +9689,16 @@
         <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C12" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E12">
-        <v>0.6659485604003286</v>
+        <v>0.3340514395996714</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9748,16 +9706,16 @@
         <v>1788</v>
       </c>
       <c r="B13" t="s">
+        <v>619</v>
+      </c>
+      <c r="C13" t="s">
         <v>626</v>
       </c>
-      <c r="C13" t="s">
-        <v>633</v>
-      </c>
       <c r="D13" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E13">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9765,16 +9723,16 @@
         <v>1788</v>
       </c>
       <c r="B14" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C14" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D14" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E14">
-        <v>0.6591581062210968</v>
+        <v>0.3408418937789032</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9782,16 +9740,16 @@
         <v>1788</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C15" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
       </c>
       <c r="E15">
-        <v>0.3446871259751236</v>
+        <v>0.6553128740248764</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9799,16 +9757,16 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C16" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D16" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E16">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9816,16 +9774,16 @@
         <v>1766</v>
       </c>
       <c r="B17" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C17" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D17" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E17">
-        <v>0.6496880819978877</v>
+        <v>0.3503119180021123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9833,16 +9791,16 @@
         <v>1766</v>
       </c>
       <c r="B18" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C18" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D18" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E18">
-        <v>0.5281274669693676</v>
+        <v>0.4718725330306324</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9850,16 +9808,16 @@
         <v>1766</v>
       </c>
       <c r="B19" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C19" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D19" t="s">
         <v>269</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9867,16 +9825,16 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C20" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D20" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E20">
-        <v>0.3763622930331989</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9884,16 +9842,16 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C21" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D21" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E21">
-        <v>0.3681685005216091</v>
+        <v>0.6318314994783909</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9901,16 +9859,16 @@
         <v>1745</v>
       </c>
       <c r="B22" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C22" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D22" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E22">
-        <v>0.6303170744231883</v>
+        <v>0.3696829255768117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9918,16 +9876,16 @@
         <v>1745</v>
       </c>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C23" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D23" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E23">
-        <v>0.5228875313595249</v>
+        <v>0.4771124686404751</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9935,16 +9893,16 @@
         <v>1745</v>
       </c>
       <c r="B24" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C24" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="E24">
-        <v>-0.1403113179438348</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9952,16 +9910,16 @@
         <v>1745</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C25" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D25" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E25">
-        <v>0.4321145433539865</v>
+        <v>0.5678854566460134</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9969,16 +9927,16 @@
         <v>1745</v>
       </c>
       <c r="B26" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C26" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D26" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E26">
-        <v>0.3306743954872882</v>
+        <v>0.6693256045127118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9986,16 +9944,16 @@
         <v>1745</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D27" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E27">
-        <v>0.5380241982608874</v>
+        <v>0.4619758017391126</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10003,16 +9961,16 @@
         <v>1780</v>
       </c>
       <c r="B28" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C28" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D28" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E28">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10020,16 +9978,16 @@
         <v>1780</v>
       </c>
       <c r="B29" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C29" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D29" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E29">
-        <v>0.02585070715408064</v>
+        <v>0.9741492928459193</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10037,16 +9995,16 @@
         <v>1780</v>
       </c>
       <c r="B30" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C30" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D30" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E30">
-        <v>0.5299367130000341</v>
+        <v>0.4700632869999659</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10054,16 +10012,16 @@
         <v>1780</v>
       </c>
       <c r="B31" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C31" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D31" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E31">
-        <v>0.251585549200915</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10071,16 +10029,16 @@
         <v>1780</v>
       </c>
       <c r="B32" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C32" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D32" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E32">
-        <v>0.6377658448452185</v>
+        <v>0.3622341551547815</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10088,16 +10046,16 @@
         <v>1690</v>
       </c>
       <c r="B33" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C33" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D33" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E33">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10105,16 +10063,16 @@
         <v>1690</v>
       </c>
       <c r="B34" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C34" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D34" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E34">
-        <v>0.6006070112847846</v>
+        <v>0.3993929887152154</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10122,16 +10080,16 @@
         <v>1690</v>
       </c>
       <c r="B35" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C35" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
       </c>
       <c r="E35">
-        <v>0.6927776902259128</v>
+        <v>0.3072223097740872</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10139,16 +10097,16 @@
         <v>1702</v>
       </c>
       <c r="B36" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D36" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E36">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10156,16 +10114,16 @@
         <v>1702</v>
       </c>
       <c r="B37" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C37" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D37" t="s">
         <v>219</v>
       </c>
       <c r="E37">
-        <v>0.2422794743102564</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10173,16 +10131,16 @@
         <v>1702</v>
       </c>
       <c r="B38" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C38" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D38" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E38">
-        <v>0.1665235506633838</v>
+        <v>0.8334764493366161</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10190,16 +10148,16 @@
         <v>1702</v>
       </c>
       <c r="B39" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C39" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D39" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E39">
-        <v>0.3747964482664389</v>
+        <v>0.6252035517335611</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10207,16 +10165,16 @@
         <v>1702</v>
       </c>
       <c r="B40" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C40" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D40" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E40">
-        <v>0.251585549200915</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10224,16 +10182,16 @@
         <v>1769</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C41" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D41" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E41">
-        <v>0.3763622930331989</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10241,7 +10199,7 @@
         <v>1769</v>
       </c>
       <c r="B42" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C42" t="s">
         <v>73</v>
@@ -10250,7 +10208,7 @@
         <v>137</v>
       </c>
       <c r="E42">
-        <v>0.2033042718909333</v>
+        <v>0.7966957281090666</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10258,16 +10216,16 @@
         <v>1769</v>
       </c>
       <c r="B43" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C43" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D43" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E43">
-        <v>0.5476217966294653</v>
+        <v>0.4523782033705347</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10275,16 +10233,16 @@
         <v>1769</v>
       </c>
       <c r="B44" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C44" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D44" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E44">
-        <v>0.6182659664677723</v>
+        <v>0.3817340335322277</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10292,16 +10250,16 @@
         <v>1764</v>
       </c>
       <c r="B45" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C45" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D45" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E45">
-        <v>0.3763622930331989</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10309,16 +10267,16 @@
         <v>1764</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C46" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D46" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E46">
-        <v>0.1262097912172102</v>
+        <v>0.7729723168397358</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10326,16 +10284,16 @@
         <v>1764</v>
       </c>
       <c r="B47" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C47" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="E47">
-        <v>-0.1403113179438348</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10343,16 +10301,16 @@
         <v>1764</v>
       </c>
       <c r="B48" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C48" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D48" t="s">
-        <v>713</v>
+        <v>219</v>
       </c>
       <c r="E48">
-        <v>-0.04064422940857375</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10360,16 +10318,16 @@
         <v>1764</v>
       </c>
       <c r="B49" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C49" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D49" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E49">
-        <v>0.4375510894881332</v>
+        <v>0.5624489105118669</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10377,16 +10335,16 @@
         <v>1764</v>
       </c>
       <c r="B50" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C50" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D50" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E50">
-        <v>-0.115246177068245</v>
+        <v>0.6527643681443239</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10394,16 +10352,16 @@
         <v>1624</v>
       </c>
       <c r="B51" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C51" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D51" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E51">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10411,7 +10369,7 @@
         <v>1624</v>
       </c>
       <c r="B52" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C52" t="s">
         <v>148</v>
@@ -10420,7 +10378,7 @@
         <v>219</v>
       </c>
       <c r="E52">
-        <v>0.2422794743102564</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10428,7 +10386,7 @@
         <v>1624</v>
       </c>
       <c r="B53" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C53" t="s">
         <v>194</v>
@@ -10437,7 +10395,7 @@
         <v>259</v>
       </c>
       <c r="E53">
-        <v>0.6117664617137885</v>
+        <v>0.3882335382862115</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -10445,16 +10403,16 @@
         <v>1624</v>
       </c>
       <c r="B54" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C54" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D54" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E54">
-        <v>0.4938110132085448</v>
+        <v>0.5061889867914552</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -10462,16 +10420,16 @@
         <v>1624</v>
       </c>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C55" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D55" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E55">
-        <v>0.4898049386062311</v>
+        <v>0.5101950613937689</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10479,16 +10437,16 @@
         <v>1624</v>
       </c>
       <c r="B56" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C56" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D56" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E56">
-        <v>0.2784033358562032</v>
+        <v>0.7215966641437968</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -10496,16 +10454,16 @@
         <v>1624</v>
       </c>
       <c r="B57" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C57" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D57" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E57">
-        <v>0.3296251293823358</v>
+        <v>0.5815028023364572</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10513,16 +10471,16 @@
         <v>1761</v>
       </c>
       <c r="B58" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C58" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D58" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E58">
-        <v>0.3763622930331989</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -10530,7 +10488,7 @@
         <v>1761</v>
       </c>
       <c r="B59" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -10539,7 +10497,7 @@
         <v>137</v>
       </c>
       <c r="E59">
-        <v>0.2033042718909333</v>
+        <v>0.7966957281090666</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -10547,16 +10505,16 @@
         <v>1761</v>
       </c>
       <c r="B60" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D60" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E60">
-        <v>-0.1422327147986436</v>
+        <v>1.142232714798644</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -10564,16 +10522,16 @@
         <v>1761</v>
       </c>
       <c r="B61" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C61" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D61" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E61">
-        <v>-0.3416943178889796</v>
+        <v>1.34169431788898</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -10581,16 +10539,16 @@
         <v>1786</v>
       </c>
       <c r="B62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C62" t="s">
         <v>626</v>
       </c>
-      <c r="C62" t="s">
-        <v>633</v>
-      </c>
       <c r="D62" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E62">
-        <v>0.5150642870848388</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10598,16 +10556,16 @@
         <v>1786</v>
       </c>
       <c r="B63" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C63" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D63" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E63">
-        <v>0.5669302298811885</v>
+        <v>0.4330697701188115</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -10615,16 +10573,16 @@
         <v>1786</v>
       </c>
       <c r="B64" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C64" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D64" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E64">
-        <v>0.251585549200915</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -10632,16 +10590,16 @@
         <v>1786</v>
       </c>
       <c r="B65" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C65" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D65" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E65">
-        <v>0.6357495239589322</v>
+        <v>0.3642504760410678</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -10649,16 +10607,16 @@
         <v>1793</v>
       </c>
       <c r="B66" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C66" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D66" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
       <c r="E66">
-        <v>0.5550409042437042</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -10666,16 +10624,16 @@
         <v>1793</v>
       </c>
       <c r="B67" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C67" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="D67" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E67">
-        <v>0.5673963468758563</v>
+        <v>0.4586028053662804</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10683,16 +10641,16 @@
         <v>1793</v>
       </c>
       <c r="B68" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C68" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D68" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E68">
-        <v>0.6297966858155626</v>
+        <v>0.3676051985804273</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10700,16 +10658,16 @@
         <v>1793</v>
       </c>
       <c r="B69" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C69" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D69" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E69">
-        <v>0.3767017924573611</v>
+        <v>0.7710126798226933</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -10717,16 +10675,16 @@
         <v>1793</v>
       </c>
       <c r="B70" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C70" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D70" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E70">
-        <v>0.7660760940438013</v>
+        <v>0.2259806347079802</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10734,16 +10692,16 @@
         <v>1733</v>
       </c>
       <c r="B71" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C71" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D71" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E71">
-        <v>0.5615299228708449</v>
+        <v>0.4384700771291551</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -10751,16 +10709,16 @@
         <v>1733</v>
       </c>
       <c r="B72" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C72" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D72" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E72">
-        <v>0.3247658220688024</v>
+        <v>0.6752341779311977</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -10768,16 +10726,16 @@
         <v>1733</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D73" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E73">
-        <v>0.5155885030665718</v>
+        <v>0.4844114969334282</v>
       </c>
     </row>
   </sheetData>
@@ -10815,16 +10773,16 @@
         <v>1716</v>
       </c>
       <c r="B2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="D2" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="E2">
-        <v>0.2633807807102216</v>
+        <v>0.7366192192897784</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10832,16 +10790,16 @@
         <v>1716</v>
       </c>
       <c r="B3" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
       </c>
       <c r="E3">
-        <v>0.1224908539764333</v>
+        <v>0.8775091460235667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10849,16 +10807,16 @@
         <v>1716</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D4" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="E4">
-        <v>0.1470061220074661</v>
+        <v>0.5751206891661629</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10866,16 +10824,16 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D5" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E5">
-        <v>0.457392141599089</v>
+        <v>0.542607858400911</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10883,16 +10841,16 @@
         <v>1747</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C6" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E6">
-        <v>0.5657424180750815</v>
+        <v>0.4342575819249185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10900,16 +10858,16 @@
         <v>1747</v>
       </c>
       <c r="B7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D7" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="E7">
-        <v>0.520825050510843</v>
+        <v>0.479174949489157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10917,16 +10875,16 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D8" t="s">
         <v>361</v>
       </c>
       <c r="E8">
-        <v>0.4897601915821522</v>
+        <v>0.5102398084178478</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10934,16 +10892,16 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C9" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D9" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="E9">
-        <v>-0.05394457163435093</v>
+        <v>1.053944571634351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10951,16 +10909,16 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C10" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E10">
-        <v>0.5760130805670535</v>
+        <v>0.4239869194329465</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10968,16 +10926,16 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C11" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="E11">
-        <v>0.4345268036466554</v>
+        <v>0.5654731963533446</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10985,16 +10943,16 @@
         <v>1766</v>
       </c>
       <c r="B12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" t="s">
         <v>732</v>
       </c>
-      <c r="C12" t="s">
-        <v>742</v>
-      </c>
       <c r="D12" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E12">
-        <v>0.4923762488491829</v>
+        <v>0.5076237511508171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11002,16 +10960,16 @@
         <v>1766</v>
       </c>
       <c r="B13" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C13" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D13" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="E13">
-        <v>0.2712361095059272</v>
+        <v>0.7287638904940728</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11019,16 +10977,16 @@
         <v>1766</v>
       </c>
       <c r="B14" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C14" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D14" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E14">
-        <v>0.2403835896240574</v>
+        <v>0.7596164103759426</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11036,16 +10994,16 @@
         <v>1766</v>
       </c>
       <c r="B15" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C15" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D15" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="E15">
-        <v>0.4690542472555159</v>
+        <v>0.5309457527444841</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11053,16 +11011,16 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C16" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D16" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="E16">
-        <v>0.5052158325270995</v>
+        <v>0.4947841674729005</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11070,16 +11028,16 @@
         <v>1745</v>
       </c>
       <c r="B17" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C17" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D17" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E17">
-        <v>0.4846858539680218</v>
+        <v>0.5153141460319781</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11087,16 +11045,16 @@
         <v>1745</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C18" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D18" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E18">
-        <v>0.08089250270073814</v>
+        <v>0.5751206891661629</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11104,16 +11062,16 @@
         <v>1745</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C19" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D19" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E19">
-        <v>0.166974992395577</v>
+        <v>0.6641089023592284</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11121,16 +11079,16 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C20" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D20" t="s">
-        <v>798</v>
+        <v>395</v>
       </c>
       <c r="E20">
-        <v>0.04008907055906704</v>
+        <v>0.8296215371595073</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11138,16 +11096,16 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C21" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D21" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E21">
-        <v>0.1567461598637502</v>
+        <v>0.8432538401362498</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11155,16 +11113,16 @@
         <v>1780</v>
       </c>
       <c r="B22" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C22" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D22" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E22">
-        <v>0.433106466635732</v>
+        <v>0.566893533364268</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11172,16 +11130,16 @@
         <v>1780</v>
       </c>
       <c r="B23" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C23" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D23" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="E23">
-        <v>0.4569803646188744</v>
+        <v>0.5430196353811256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11189,16 +11147,16 @@
         <v>1780</v>
       </c>
       <c r="B24" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E24">
-        <v>0.5760130805670535</v>
+        <v>0.4239869194329465</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11206,16 +11164,16 @@
         <v>1780</v>
       </c>
       <c r="B25" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C25" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D25" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="E25">
-        <v>0.4756608664051913</v>
+        <v>0.5243391335948087</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11223,16 +11181,16 @@
         <v>1780</v>
       </c>
       <c r="B26" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C26" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D26" t="s">
-        <v>803</v>
+        <v>134</v>
       </c>
       <c r="E26">
-        <v>0.1197367869800983</v>
+        <v>0.7236029547274971</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11240,16 +11198,16 @@
         <v>1690</v>
       </c>
       <c r="B27" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C27" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D27" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E27">
-        <v>0.4923762488491829</v>
+        <v>0.5076237511508171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11257,16 +11215,16 @@
         <v>1690</v>
       </c>
       <c r="B28" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C28" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D28" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E28">
-        <v>0.5074601695461913</v>
+        <v>0.4925398304538087</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11274,7 +11232,7 @@
         <v>1690</v>
       </c>
       <c r="B29" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C29" t="s">
         <v>169</v>
@@ -11283,7 +11241,7 @@
         <v>238</v>
       </c>
       <c r="E29">
-        <v>0.01810220590098558</v>
+        <v>0.9818977940990145</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11291,16 +11249,16 @@
         <v>1769</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C30" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D30" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E30">
-        <v>0.3712422042249645</v>
+        <v>0.6287577957750355</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -11308,7 +11266,7 @@
         <v>1769</v>
       </c>
       <c r="B31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C31" t="s">
         <v>169</v>
@@ -11317,7 +11275,7 @@
         <v>238</v>
       </c>
       <c r="E31">
-        <v>0.01810220590098558</v>
+        <v>0.9818977940990145</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11325,16 +11283,16 @@
         <v>1769</v>
       </c>
       <c r="B32" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D32" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="E32">
-        <v>-0.2559399204973186</v>
+        <v>1.255939920497319</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11342,7 +11300,7 @@
         <v>1769</v>
       </c>
       <c r="B33" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
@@ -11351,7 +11309,7 @@
         <v>137</v>
       </c>
       <c r="E33">
-        <v>0.1224908539764333</v>
+        <v>0.8775091460235667</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11359,16 +11317,16 @@
         <v>1736</v>
       </c>
       <c r="B34" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C34" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D34" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="E34">
-        <v>0.5790545497701909</v>
+        <v>0.4209454502298091</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11376,16 +11334,16 @@
         <v>1736</v>
       </c>
       <c r="B35" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C35" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D35" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="E35">
-        <v>0.5465628978716816</v>
+        <v>0.4534371021283184</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11393,16 +11351,16 @@
         <v>1736</v>
       </c>
       <c r="B36" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C36" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D36" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="E36">
-        <v>0.4248793108338371</v>
+        <v>0.5751206891661629</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -11410,16 +11368,16 @@
         <v>1736</v>
       </c>
       <c r="B37" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C37" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D37" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="E37">
-        <v>0.5777095884296732</v>
+        <v>0.4222904115703268</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11427,7 +11385,7 @@
         <v>1736</v>
       </c>
       <c r="B38" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C38" t="s">
         <v>204</v>
@@ -11436,7 +11394,7 @@
         <v>269</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11444,16 +11402,16 @@
         <v>1738</v>
       </c>
       <c r="B39" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C39" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D39" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="E39">
-        <v>0.4725169924991867</v>
+        <v>0.5274830075008132</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11461,16 +11419,16 @@
         <v>1738</v>
       </c>
       <c r="B40" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D40" t="s">
         <v>108</v>
       </c>
       <c r="E40">
-        <v>0.3930433023276186</v>
+        <v>0.6069566976723814</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11478,16 +11436,16 @@
         <v>1738</v>
       </c>
       <c r="B41" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C41" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
       </c>
       <c r="E41">
-        <v>0.1945885311150192</v>
+        <v>0.8054114688849808</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11495,16 +11453,16 @@
         <v>1761</v>
       </c>
       <c r="B42" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C42" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D42" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E42">
-        <v>0.3954272372782004</v>
+        <v>0.6045727627217996</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11512,7 +11470,7 @@
         <v>1761</v>
       </c>
       <c r="B43" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
@@ -11521,7 +11479,7 @@
         <v>137</v>
       </c>
       <c r="E43">
-        <v>0.1224908539764333</v>
+        <v>0.8775091460235667</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11529,16 +11487,16 @@
         <v>1761</v>
       </c>
       <c r="B44" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C44" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D44" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E44">
-        <v>-0.388333558376079</v>
+        <v>1.388333558376079</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11546,16 +11504,16 @@
         <v>1761</v>
       </c>
       <c r="B45" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C45" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D45" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="E45">
-        <v>0.4162282028956904</v>
+        <v>0.5837717971043096</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11563,16 +11521,16 @@
         <v>1761</v>
       </c>
       <c r="B46" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C46" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D46" t="s">
-        <v>814</v>
+        <v>487</v>
       </c>
       <c r="E46">
-        <v>-0.4168148076174243</v>
+        <v>0.472183415274664</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11580,7 +11538,7 @@
         <v>1761</v>
       </c>
       <c r="B47" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -11589,7 +11547,7 @@
         <v>136</v>
       </c>
       <c r="E47">
-        <v>0.3747199693772745</v>
+        <v>0.6252800306227255</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11597,16 +11555,16 @@
         <v>1761</v>
       </c>
       <c r="B48" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C48" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D48" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E48">
-        <v>0.4825384085194093</v>
+        <v>0.5174615914805907</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11614,7 +11572,7 @@
         <v>1761</v>
       </c>
       <c r="B49" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C49" t="s">
         <v>197</v>
@@ -11623,7 +11581,7 @@
         <v>262</v>
       </c>
       <c r="E49">
-        <v>0.1269242008166425</v>
+        <v>0.8730757991833574</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -11631,16 +11589,16 @@
         <v>1761</v>
       </c>
       <c r="B50" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C50" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D50" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="E50">
-        <v>0.1427440790712377</v>
+        <v>0.8572559209287622</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11648,16 +11606,16 @@
         <v>1762</v>
       </c>
       <c r="B51" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C51" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D51" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E51">
-        <v>0.4923762488491829</v>
+        <v>0.5076237511508171</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11665,16 +11623,16 @@
         <v>1762</v>
       </c>
       <c r="B52" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C52" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D52" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="E52">
-        <v>0.2495282579907085</v>
+        <v>0.7504717420092915</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11682,16 +11640,16 @@
         <v>1762</v>
       </c>
       <c r="B53" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C53" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D53" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="E53">
-        <v>0.5352239921513177</v>
+        <v>0.4647760078486823</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11699,16 +11657,16 @@
         <v>1762</v>
       </c>
       <c r="B54" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C54" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D54" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="E54">
-        <v>0.2840884056308115</v>
+        <v>0.7159115943691885</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11716,16 +11674,16 @@
         <v>1762</v>
       </c>
       <c r="B55" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C55" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
       </c>
       <c r="E55">
-        <v>0.3930433023276186</v>
+        <v>0.6069566976723814</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11733,16 +11691,16 @@
         <v>1731</v>
       </c>
       <c r="B56" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C56" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D56" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="E56">
-        <v>0.262770652485438</v>
+        <v>0.7372293475145619</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -11750,16 +11708,16 @@
         <v>1731</v>
       </c>
       <c r="B57" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E57">
-        <v>0.527816584725336</v>
+        <v>0.472183415274664</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11767,16 +11725,16 @@
         <v>1722</v>
       </c>
       <c r="B58" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C58" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D58" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="E58">
-        <v>0.4411036442250935</v>
+        <v>0.5588963557749065</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11784,16 +11742,16 @@
         <v>1722</v>
       </c>
       <c r="B59" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C59" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D59" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="E59">
-        <v>0.4309323130006161</v>
+        <v>0.5690676869993839</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -11801,16 +11759,16 @@
         <v>1722</v>
       </c>
       <c r="B60" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C60" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="D60" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="E60">
-        <v>0.5270782023438483</v>
+        <v>0.4729217976561517</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -11818,16 +11776,16 @@
         <v>1733</v>
       </c>
       <c r="B61" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C61" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D61" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="E61">
-        <v>0.4725169924991867</v>
+        <v>0.5274830075008132</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11835,16 +11793,16 @@
         <v>1733</v>
       </c>
       <c r="B62" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C62" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D62" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="E62">
-        <v>0.4569803646188744</v>
+        <v>0.5430196353811256</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11852,16 +11810,16 @@
         <v>1733</v>
       </c>
       <c r="B63" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C63" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D63" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="E63">
-        <v>0.5382367626984238</v>
+        <v>0.4617632373015762</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -11869,16 +11827,16 @@
         <v>1733</v>
       </c>
       <c r="B64" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C64" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D64" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="E64">
-        <v>0.4535944607345402</v>
+        <v>0.5464055392654599</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/novelty_algo_2_results.xlsx
+++ b/scripts/novelty_algo_2_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="808">
   <si>
     <t>id</t>
   </si>
@@ -634,9 +634,6 @@
     <t>to entertain a baby (the noise they make)</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>unlock things</t>
   </si>
   <si>
@@ -829,9 +826,6 @@
     <t>['entertain', 'baby', 'noise']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['unlock', 'thing']</t>
   </si>
   <si>
@@ -1540,9 +1534,6 @@
     <t>an obstacle</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>sit</t>
   </si>
   <si>
@@ -1928,9 +1919,6 @@
   </si>
   <si>
     <t>poke a hole in a piece of paper</t>
-  </si>
-  <si>
-    <t>make a</t>
   </si>
   <si>
     <t>writing</t>
@@ -4135,7 +4123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4169,7 +4157,7 @@
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>0.5558430805634895</v>
@@ -4186,7 +4174,7 @@
         <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0.5542490720620068</v>
@@ -4203,7 +4191,7 @@
         <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>0.7241531086450241</v>
@@ -4220,7 +4208,7 @@
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>0.568693528688808</v>
@@ -4237,7 +4225,7 @@
         <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6">
         <v>0.5412802507545813</v>
@@ -4254,7 +4242,7 @@
         <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>0.924062514905964</v>
@@ -4271,7 +4259,7 @@
         <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>0.6565151096319921</v>
@@ -4288,7 +4276,7 @@
         <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9">
         <v>0.7358125059185243</v>
@@ -4305,7 +4293,7 @@
         <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10">
         <v>0.8305770152924801</v>
@@ -4322,7 +4310,7 @@
         <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11">
         <v>0.7751199340676189</v>
@@ -4339,7 +4327,7 @@
         <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12">
         <v>0.9215990929811612</v>
@@ -4356,7 +4344,7 @@
         <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>0.6662723413521754</v>
@@ -4373,7 +4361,7 @@
         <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <v>0.6942978918863969</v>
@@ -4390,7 +4378,7 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>0.670375315775587</v>
@@ -4407,7 +4395,7 @@
         <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16">
         <v>0.5747732870554627</v>
@@ -4424,7 +4412,7 @@
         <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17">
         <v>0.6468417620542044</v>
@@ -4441,7 +4429,7 @@
         <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>0.568693528688808</v>
@@ -4458,7 +4446,7 @@
         <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>0.6499178086810817</v>
@@ -4475,7 +4463,7 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20">
         <v>1.416944972979675</v>
@@ -4492,7 +4480,7 @@
         <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>0.6937488276655308</v>
@@ -4509,7 +4497,7 @@
         <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22">
         <v>0.5003145166072303</v>
@@ -4526,7 +4514,7 @@
         <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23">
         <v>0.6942978918863969</v>
@@ -4543,7 +4531,7 @@
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24">
         <v>0.6774131200810436</v>
@@ -4560,7 +4548,7 @@
         <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25">
         <v>0.559885878699602</v>
@@ -4577,7 +4565,7 @@
         <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26">
         <v>0.5726674982962436</v>
@@ -4594,7 +4582,7 @@
         <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27">
         <v>0.6942978918863969</v>
@@ -4611,7 +4599,7 @@
         <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28">
         <v>0.6937488276655308</v>
@@ -4628,7 +4616,7 @@
         <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>0.5569452120734681</v>
@@ -4645,7 +4633,7 @@
         <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30">
         <v>1.03388180281447</v>
@@ -4662,7 +4650,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31">
         <v>0.811078003742816</v>
@@ -4679,7 +4667,7 @@
         <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32">
         <v>0.5654727468473191</v>
@@ -4696,7 +4684,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33">
         <v>0.811078003742816</v>
@@ -4713,7 +4701,7 @@
         <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34">
         <v>1.052490540608787</v>
@@ -4730,7 +4718,7 @@
         <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35">
         <v>1.03388180281447</v>
@@ -4764,7 +4752,7 @@
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37">
         <v>0.7831224524085636</v>
@@ -4781,7 +4769,7 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38">
         <v>0.6102966070098685</v>
@@ -4815,7 +4803,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40">
         <v>0.63279811653012</v>
@@ -4832,7 +4820,7 @@
         <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41">
         <v>0.7241531086450241</v>
@@ -4866,7 +4854,7 @@
         <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E43">
         <v>0.9539231281449421</v>
@@ -4883,7 +4871,7 @@
         <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44">
         <v>0.6942978918863969</v>
@@ -4900,7 +4888,7 @@
         <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E45">
         <v>0.495811401012381</v>
@@ -4917,7 +4905,7 @@
         <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46">
         <v>0.644114821881286</v>
@@ -4934,7 +4922,7 @@
         <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47">
         <v>0.6941316494347971</v>
@@ -4951,7 +4939,7 @@
         <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48">
         <v>0.7831224524085636</v>
@@ -4968,7 +4956,7 @@
         <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49">
         <v>0.5360713262620831</v>
@@ -4985,7 +4973,7 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50">
         <v>0.5552304764536851</v>
@@ -5002,7 +4990,7 @@
         <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51">
         <v>0.6942978918863969</v>
@@ -5019,7 +5007,7 @@
         <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52">
         <v>0.7780339074583654</v>
@@ -5036,7 +5024,7 @@
         <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53">
         <v>1.339073604923987</v>
@@ -5053,7 +5041,7 @@
         <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54">
         <v>0.7236062416467076</v>
@@ -5070,7 +5058,7 @@
         <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55">
         <v>0.6498652361367236</v>
@@ -5087,7 +5075,7 @@
         <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E56">
         <v>0.6102966070098685</v>
@@ -5104,7 +5092,7 @@
         <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57">
         <v>0.8837894702842761</v>
@@ -5121,7 +5109,7 @@
         <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E58">
         <v>0.5650025559624021</v>
@@ -5138,7 +5126,7 @@
         <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>0.568693528688808</v>
@@ -5155,7 +5143,7 @@
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60">
         <v>0.924062514905964</v>
@@ -5172,7 +5160,7 @@
         <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E61">
         <v>0.5898135119502966</v>
@@ -5189,7 +5177,7 @@
         <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E62">
         <v>0.7190027929656926</v>
@@ -5206,7 +5194,7 @@
         <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E63">
         <v>0.4832009386961374</v>
@@ -5223,7 +5211,7 @@
         <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E64">
         <v>0.6516444267840911</v>
@@ -5257,7 +5245,7 @@
         <v>196</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66">
         <v>0.7783020175672404</v>
@@ -5274,7 +5262,7 @@
         <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67">
         <v>0.9043825049430608</v>
@@ -5291,7 +5279,7 @@
         <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E68">
         <v>0.7163971736007901</v>
@@ -5308,7 +5296,7 @@
         <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69">
         <v>0.6843028687363217</v>
@@ -5325,7 +5313,7 @@
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E70">
         <v>0.6942978918863969</v>
@@ -5342,7 +5330,7 @@
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71">
         <v>0.5747732870554627</v>
@@ -5359,7 +5347,7 @@
         <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72">
         <v>0.6279074270618819</v>
@@ -5376,7 +5364,7 @@
         <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E73">
         <v>0.6767027577573826</v>
@@ -5393,7 +5381,7 @@
         <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E74">
         <v>0.5075383558557637</v>
@@ -5410,7 +5398,7 @@
         <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E75">
         <v>0.6335977487393374</v>
@@ -5418,7 +5406,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1786</v>
+        <v>1762</v>
       </c>
       <c r="B76" t="s">
         <v>142</v>
@@ -5427,10 +5415,10 @@
         <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.6491350485866922</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5444,10 +5432,10 @@
         <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77">
-        <v>0.6491350485866922</v>
+        <v>0.6719858820514097</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5461,10 +5449,10 @@
         <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E78">
-        <v>0.6719858820514097</v>
+        <v>0.6179465083352927</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5478,10 +5466,10 @@
         <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E79">
-        <v>0.6179465083352927</v>
+        <v>0.6828365612865503</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5495,10 +5483,10 @@
         <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E80">
-        <v>0.6828365612865503</v>
+        <v>0.578197917708239</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5512,15 +5500,15 @@
         <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E81">
-        <v>0.578197917708239</v>
+        <v>0.5569452120734681</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1762</v>
+        <v>1731</v>
       </c>
       <c r="B82" t="s">
         <v>142</v>
@@ -5529,27 +5517,27 @@
         <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="E82">
-        <v>0.5569452120734681</v>
+        <v>0.6925416782951319</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1731</v>
+        <v>1779</v>
       </c>
       <c r="B83" t="s">
         <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="E83">
-        <v>0.6925416782951319</v>
+        <v>0.6942978918863969</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5560,13 +5548,13 @@
         <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E84">
-        <v>0.6942978918863969</v>
+        <v>0.5569452120734681</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5577,13 +5565,13 @@
         <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E85">
-        <v>0.5569452120734681</v>
+        <v>0.5835211383170122</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5597,26 +5585,9 @@
         <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E86">
-        <v>0.5835211383170122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>1779</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" t="s">
-        <v>277</v>
-      </c>
-      <c r="E87">
         <v>0.879640913573298</v>
       </c>
     </row>
@@ -5627,7 +5598,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5655,13 +5626,13 @@
         <v>1476</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E2">
         <v>0.5262830180560515</v>
@@ -5672,13 +5643,13 @@
         <v>1476</v>
       </c>
       <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
         <v>278</v>
       </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E3">
         <v>0.5899344624210927</v>
@@ -5689,13 +5660,13 @@
         <v>1476</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E4">
         <v>0.6910651643396588</v>
@@ -5706,13 +5677,13 @@
         <v>1476</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E5">
         <v>0.5555219559997566</v>
@@ -5723,13 +5694,13 @@
         <v>1698</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E6">
         <v>0.6910651643396588</v>
@@ -5740,13 +5711,13 @@
         <v>1698</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E7">
         <v>0.559157060666604</v>
@@ -5757,13 +5728,13 @@
         <v>1698</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E8">
         <v>0.6354232190971162</v>
@@ -5774,13 +5745,13 @@
         <v>1698</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>0.7273369166214202</v>
@@ -5791,13 +5762,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10">
         <v>0.6910651643396588</v>
@@ -5808,13 +5779,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11">
         <v>0.7379866039893783</v>
@@ -5825,13 +5796,13 @@
         <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E12">
         <v>0.5792718138826458</v>
@@ -5842,13 +5813,13 @@
         <v>1747</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13">
         <v>0.4795921907280989</v>
@@ -5859,13 +5830,13 @@
         <v>1747</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14">
         <v>0.896176714733996</v>
@@ -5876,13 +5847,13 @@
         <v>1747</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E15">
         <v>0.5337012098142271</v>
@@ -5893,13 +5864,13 @@
         <v>1741</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E16">
         <v>0.6852928715123748</v>
@@ -5910,13 +5881,13 @@
         <v>1741</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E17">
         <v>0.7208810557280718</v>
@@ -5927,13 +5898,13 @@
         <v>1741</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>0.6042946951535469</v>
@@ -5944,13 +5915,13 @@
         <v>1741</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E19">
         <v>0.6354232190971162</v>
@@ -5961,13 +5932,13 @@
         <v>1691</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E20">
         <v>0.7428128926458335</v>
@@ -5978,13 +5949,13 @@
         <v>1691</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E21">
         <v>0.6354232190971162</v>
@@ -5995,13 +5966,13 @@
         <v>1691</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22">
         <v>0.5567740728206472</v>
@@ -6012,13 +5983,13 @@
         <v>1691</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23">
         <v>0.6045702278052427</v>
@@ -6029,13 +6000,13 @@
         <v>1788</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24">
         <v>0.6717730861575605</v>
@@ -6046,13 +6017,13 @@
         <v>1788</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>0.7273369166214202</v>
@@ -6063,13 +6034,13 @@
         <v>1788</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E26">
         <v>0.7161631859617392</v>
@@ -6080,13 +6051,13 @@
         <v>1788</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E27">
         <v>0.4714986057096325</v>
@@ -6097,13 +6068,13 @@
         <v>1788</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E28">
         <v>0.6910651643396588</v>
@@ -6114,13 +6085,13 @@
         <v>1766</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E29">
         <v>0.6910651643396588</v>
@@ -6131,13 +6102,13 @@
         <v>1766</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E30">
         <v>0.559157060666604</v>
@@ -6148,13 +6119,13 @@
         <v>1766</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E31">
         <v>0.4633294477252453</v>
@@ -6165,13 +6136,13 @@
         <v>1766</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E32">
         <v>0.5316425645847574</v>
@@ -6182,13 +6153,13 @@
         <v>1745</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E33">
         <v>0.85497279053261</v>
@@ -6199,13 +6170,13 @@
         <v>1745</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E34">
         <v>0.6083714768757746</v>
@@ -6216,13 +6187,13 @@
         <v>1745</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E35">
         <v>0.559157060666604</v>
@@ -6233,13 +6204,13 @@
         <v>1745</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>0.7273369166214202</v>
@@ -6250,13 +6221,13 @@
         <v>1745</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E37">
         <v>0.4663015725168832</v>
@@ -6267,13 +6238,13 @@
         <v>1780</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E38">
         <v>0.5371044818197552</v>
@@ -6284,13 +6255,13 @@
         <v>1780</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>0.7273369166214202</v>
@@ -6301,13 +6272,13 @@
         <v>1780</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>0.6063444028476068</v>
@@ -6318,13 +6289,13 @@
         <v>1780</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E41">
         <v>0.828417476626649</v>
@@ -6335,13 +6306,13 @@
         <v>1780</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E42">
         <v>0.4182385561303553</v>
@@ -6352,13 +6323,13 @@
         <v>1690</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E43">
         <v>0.5767506239581836</v>
@@ -6369,13 +6340,13 @@
         <v>1690</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E44">
         <v>0.6639554144066792</v>
@@ -6386,13 +6357,13 @@
         <v>1690</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E45">
         <v>0.5584576276645431</v>
@@ -6403,13 +6374,13 @@
         <v>1690</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E46">
         <v>0.4822312559306474</v>
@@ -6420,13 +6391,13 @@
         <v>1690</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47">
         <v>0.5751438437308347</v>
@@ -6437,13 +6408,13 @@
         <v>1736</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E48">
         <v>0.5265335008411317</v>
@@ -6454,13 +6425,13 @@
         <v>1736</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E49">
         <v>0.4719458739222019</v>
@@ -6471,13 +6442,13 @@
         <v>1736</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E50">
         <v>0.5585229429268987</v>
@@ -6488,13 +6459,13 @@
         <v>1736</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E51">
         <v>0.5950626947891721</v>
@@ -6505,13 +6476,13 @@
         <v>1736</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E52">
         <v>0.8390159424968904</v>
@@ -6522,13 +6493,13 @@
         <v>1692</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E53">
         <v>0.6677839560574435</v>
@@ -6539,13 +6510,13 @@
         <v>1692</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E54">
         <v>0.4162540939346674</v>
@@ -6556,13 +6527,13 @@
         <v>1692</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E55">
         <v>0.6370447974434919</v>
@@ -6573,13 +6544,13 @@
         <v>1692</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E56">
         <v>0.8914750100400497</v>
@@ -6590,13 +6561,13 @@
         <v>1713</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E57">
         <v>0.5371044818197552</v>
@@ -6607,13 +6578,13 @@
         <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E58">
         <v>0.4804596056180305</v>
@@ -6624,13 +6595,13 @@
         <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E59">
         <v>0.5193182836601602</v>
@@ -6641,13 +6612,13 @@
         <v>1713</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E60">
         <v>0.4535142752777283</v>
@@ -6658,13 +6629,13 @@
         <v>1624</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E61">
         <v>0.559157060666604</v>
@@ -6675,13 +6646,13 @@
         <v>1624</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E62">
         <v>0.7209748435812438</v>
@@ -6692,13 +6663,13 @@
         <v>1624</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E63">
         <v>0.7304167156903627</v>
@@ -6709,13 +6680,13 @@
         <v>1786</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E64">
         <v>0.5899344624210927</v>
@@ -6726,13 +6697,13 @@
         <v>1786</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E65">
         <v>0.8779681216760559</v>
@@ -6743,13 +6714,13 @@
         <v>1786</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E66">
         <v>0.7208810557280718</v>
@@ -6760,13 +6731,13 @@
         <v>1786</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67">
         <v>0.5314806910736243</v>
@@ -6777,13 +6748,13 @@
         <v>1786</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68">
         <v>0.4498220495202153</v>
@@ -6794,13 +6765,13 @@
         <v>1786</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E69">
         <v>0.5193182836601602</v>
@@ -6811,13 +6782,13 @@
         <v>1786</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E70">
         <v>0.6448980996053244</v>
@@ -6828,13 +6799,13 @@
         <v>1786</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E71">
         <v>0.6755127001677963</v>
@@ -6842,19 +6813,19 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0.6961021711351905</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6862,16 +6833,16 @@
         <v>1793</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E73">
-        <v>0.6961021711351905</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6879,16 +6850,16 @@
         <v>1793</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E74">
-        <v>0.5371044818197552</v>
+        <v>0.5751438437308347</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6896,16 +6867,16 @@
         <v>1793</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E75">
-        <v>0.5751438437308347</v>
+        <v>0.6136487742759178</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6913,33 +6884,33 @@
         <v>1793</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E76">
-        <v>0.6136487742759178</v>
+        <v>0.728444119630151</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1793</v>
+        <v>1762</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="E77">
-        <v>0.728444119630151</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6947,16 +6918,16 @@
         <v>1762</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
         <v>359</v>
       </c>
       <c r="E78">
-        <v>0.6910651643396588</v>
+        <v>0.559157060666604</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6964,16 +6935,16 @@
         <v>1762</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="E79">
-        <v>0.559157060666604</v>
+        <v>0.6204158643570409</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6981,16 +6952,16 @@
         <v>1762</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E80">
-        <v>0.6204158643570409</v>
+        <v>0.5842011401722025</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6998,33 +6969,33 @@
         <v>1762</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E81">
-        <v>0.5842011401722025</v>
+        <v>0.6386723103331186</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1762</v>
+        <v>1722</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="E82">
-        <v>0.6386723103331186</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7032,16 +7003,16 @@
         <v>1722</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="E83">
-        <v>0.6910651643396588</v>
+        <v>0.6032801623581544</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -7049,33 +7020,33 @@
         <v>1722</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="E84">
-        <v>0.6032801623581544</v>
+        <v>0.828417476626649</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E85">
-        <v>0.828417476626649</v>
+        <v>0.5371044818197552</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -7083,16 +7054,16 @@
         <v>1733</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="E86">
-        <v>0.5371044818197552</v>
+        <v>0.6910651643396588</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -7100,16 +7071,16 @@
         <v>1733</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="E87">
-        <v>0.6910651643396588</v>
+        <v>0.4130927533044932</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -7117,32 +7088,15 @@
         <v>1733</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>415</v>
       </c>
       <c r="E88">
-        <v>0.4130927533044932</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>1733</v>
-      </c>
-      <c r="B89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" t="s">
-        <v>417</v>
-      </c>
-      <c r="E89">
         <v>0.5632789101070805</v>
       </c>
     </row>
@@ -7181,13 +7135,13 @@
         <v>1476</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E2">
         <v>0.5634368270680741</v>
@@ -7198,10 +7152,10 @@
         <v>1476</v>
       </c>
       <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
         <v>418</v>
-      </c>
-      <c r="C3" t="s">
-        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
@@ -7215,10 +7169,10 @@
         <v>1476</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
@@ -7232,13 +7186,13 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E5">
         <v>0.3427587688790328</v>
@@ -7249,13 +7203,13 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E6">
         <v>0.3987346205698066</v>
@@ -7266,13 +7220,13 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E7">
         <v>0.5036582499603306</v>
@@ -7283,13 +7237,13 @@
         <v>1718</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E8">
         <v>0.2837021363560824</v>
@@ -7300,13 +7254,13 @@
         <v>1691</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E9">
         <v>0.3427587688790328</v>
@@ -7317,13 +7271,13 @@
         <v>1691</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E10">
         <v>0.3987346205698066</v>
@@ -7334,13 +7288,13 @@
         <v>1691</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E11">
         <v>0.5824021146775967</v>
@@ -7351,13 +7305,13 @@
         <v>1691</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E12">
         <v>0.4479978092696815</v>
@@ -7368,13 +7322,13 @@
         <v>1691</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E13">
         <v>0.6960980156988329</v>
@@ -7385,13 +7339,13 @@
         <v>1678</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E14">
         <v>0.2962153241467904</v>
@@ -7402,13 +7356,13 @@
         <v>1678</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E15">
         <v>0.3517694453123754</v>
@@ -7419,7 +7373,7 @@
         <v>1678</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -7436,13 +7390,13 @@
         <v>1678</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17">
         <v>0.3091571313485612</v>
@@ -7453,13 +7407,13 @@
         <v>1678</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E18">
         <v>0.8979663714575133</v>
@@ -7470,13 +7424,13 @@
         <v>1678</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E19">
         <v>0.5248501642705341</v>
@@ -7487,13 +7441,13 @@
         <v>1690</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E20">
         <v>0.4884018182325386</v>
@@ -7504,13 +7458,13 @@
         <v>1690</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E21">
         <v>0.2715090937140338</v>
@@ -7521,13 +7475,13 @@
         <v>1690</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22">
         <v>1.410114658657479</v>
@@ -7538,13 +7492,13 @@
         <v>1738</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E23">
         <v>0.4884018182325386</v>
@@ -7555,13 +7509,13 @@
         <v>1738</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E24">
         <v>0.6298225873163439</v>
@@ -7572,13 +7526,13 @@
         <v>1738</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>1.410114658657479</v>
@@ -7589,13 +7543,13 @@
         <v>1713</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E26">
         <v>0.3427587688790328</v>
@@ -7606,13 +7560,13 @@
         <v>1713</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E27">
         <v>0.685096404910531</v>
@@ -7623,13 +7577,13 @@
         <v>1713</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E28">
         <v>0.3924478798221418</v>
@@ -7640,13 +7594,13 @@
         <v>1713</v>
       </c>
       <c r="B29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E29">
         <v>0.3959669421595374</v>
@@ -7657,13 +7611,13 @@
         <v>1793</v>
       </c>
       <c r="B30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E30">
         <v>0.3733996159241169</v>
@@ -7674,13 +7628,13 @@
         <v>1793</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E31">
         <v>0.5367733391509204</v>
@@ -7691,13 +7645,13 @@
         <v>1793</v>
       </c>
       <c r="B32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E32">
         <v>0.5882743753462218</v>
@@ -7708,13 +7662,13 @@
         <v>1793</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33">
         <v>0.3615910221179356</v>
@@ -7725,13 +7679,13 @@
         <v>1762</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E34">
         <v>0.4884018182325386</v>
@@ -7742,13 +7696,13 @@
         <v>1762</v>
       </c>
       <c r="B35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E35">
         <v>0.4734371186250488</v>
@@ -7759,13 +7713,13 @@
         <v>1762</v>
       </c>
       <c r="B36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C36" t="s">
         <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>1.410114658657479</v>
@@ -7776,13 +7730,13 @@
         <v>1762</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E37">
         <v>0.5032053150582676</v>
@@ -7793,13 +7747,13 @@
         <v>1731</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E38">
         <v>0.3100607049668529</v>
@@ -7810,7 +7764,7 @@
         <v>1731</v>
       </c>
       <c r="B39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -7827,13 +7781,13 @@
         <v>1731</v>
       </c>
       <c r="B40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E40">
         <v>0.6832399159365661</v>
@@ -7844,13 +7798,13 @@
         <v>1722</v>
       </c>
       <c r="B41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E41">
         <v>0.3667163122041106</v>
@@ -7861,13 +7815,13 @@
         <v>1722</v>
       </c>
       <c r="B42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E42">
         <v>0.3172390017442887</v>
@@ -7878,13 +7832,13 @@
         <v>1722</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E43">
         <v>0.4985110082903879</v>
@@ -7895,13 +7849,13 @@
         <v>1722</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E44">
         <v>0.6365084154121816</v>
@@ -7912,13 +7866,13 @@
         <v>1779</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D45" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E45">
         <v>0.3427587688790328</v>
@@ -7929,13 +7883,13 @@
         <v>1779</v>
       </c>
       <c r="B46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E46">
         <v>0.2650957785180169</v>
@@ -7946,13 +7900,13 @@
         <v>1779</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E47">
         <v>0.3944032595100757</v>
@@ -7963,13 +7917,13 @@
         <v>1779</v>
       </c>
       <c r="B48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E48">
         <v>0.4899793431830263</v>
@@ -7980,13 +7934,13 @@
         <v>1779</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E49">
         <v>0.6773992949855008</v>
@@ -7997,13 +7951,13 @@
         <v>1733</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E50">
         <v>0.4884018182325386</v>
@@ -8014,13 +7968,13 @@
         <v>1733</v>
       </c>
       <c r="B51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E51">
         <v>0.4734371186250488</v>
@@ -8031,10 +7985,10 @@
         <v>1733</v>
       </c>
       <c r="B52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -8050,7 +8004,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8078,13 +8032,13 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2">
         <v>0.3591245085688587</v>
@@ -8095,13 +8049,13 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
         <v>497</v>
       </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E3">
         <v>0.213908623325213</v>
@@ -8112,13 +8066,13 @@
         <v>1698</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E4">
         <v>0.3679369020087655</v>
@@ -8129,13 +8083,13 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E5">
         <v>0.2591927201559737</v>
@@ -8146,13 +8100,13 @@
         <v>1716</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E6">
         <v>0.244752913959411</v>
@@ -8163,13 +8117,13 @@
         <v>1716</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E7">
         <v>0.6378222597099423</v>
@@ -8180,10 +8134,10 @@
         <v>1716</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
         <v>137</v>
@@ -8197,13 +8151,13 @@
         <v>1716</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E9">
         <v>0.7625214868755406</v>
@@ -8211,19 +8165,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>563</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8231,16 +8185,16 @@
         <v>1718</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E11">
-        <v>0.3591245085688587</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8248,16 +8202,16 @@
         <v>1718</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E12">
-        <v>0.213908623325213</v>
+        <v>0.2643236553202648</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8265,33 +8219,33 @@
         <v>1718</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E13">
-        <v>0.2643236553202648</v>
+        <v>0.2384829495706874</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1718</v>
+        <v>1747</v>
       </c>
       <c r="B14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E14">
-        <v>0.2384829495706874</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8299,16 +8253,16 @@
         <v>1747</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E15">
-        <v>0.3591245085688587</v>
+        <v>0.201870765602307</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8316,16 +8270,16 @@
         <v>1747</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E16">
-        <v>0.201870765602307</v>
+        <v>0.6083569016492967</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8333,16 +8287,16 @@
         <v>1747</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>116</v>
       </c>
       <c r="E17">
-        <v>0.6083569016492967</v>
+        <v>0.53116398507365</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8350,16 +8304,16 @@
         <v>1747</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>574</v>
       </c>
       <c r="E18">
-        <v>0.53116398507365</v>
+        <v>0.4449836105030017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8367,16 +8321,16 @@
         <v>1747</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E19">
-        <v>0.4449836105030017</v>
+        <v>0.2824055989093485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8384,33 +8338,33 @@
         <v>1747</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E20">
-        <v>0.2824055989093485</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E21">
-        <v>0.440318176883044</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8418,16 +8372,16 @@
         <v>1741</v>
       </c>
       <c r="B22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C22" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E22">
-        <v>0.3591245085688587</v>
+        <v>0.2824055989093485</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8435,16 +8389,16 @@
         <v>1741</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E23">
-        <v>0.2824055989093485</v>
+        <v>0.3869912429989311</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8452,16 +8406,16 @@
         <v>1741</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>580</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>0.3869912429989311</v>
+        <v>0.3067971767205244</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8469,33 +8423,33 @@
         <v>1741</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>578</v>
       </c>
       <c r="E25">
-        <v>0.3067971767205244</v>
+        <v>0.4887800186027614</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1741</v>
+        <v>1691</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E26">
-        <v>0.4887800186027614</v>
+        <v>0.4494022173177205</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8503,16 +8457,16 @@
         <v>1691</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E27">
-        <v>0.4494022173177205</v>
+        <v>0.3350287415535116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8520,16 +8474,16 @@
         <v>1691</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E28">
-        <v>0.3350287415535116</v>
+        <v>0.8181906006823925</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8537,16 +8491,16 @@
         <v>1691</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E29">
-        <v>0.8181906006823925</v>
+        <v>0.2574831322926308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8554,33 +8508,33 @@
         <v>1691</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E30">
-        <v>0.2574831322926308</v>
+        <v>0.4377032157743044</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="E31">
-        <v>0.4377032157743044</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8588,16 +8542,16 @@
         <v>1678</v>
       </c>
       <c r="B32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E32">
-        <v>0.3591245085688587</v>
+        <v>0.4069428369913716</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8605,16 +8559,16 @@
         <v>1678</v>
       </c>
       <c r="B33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" t="s">
         <v>497</v>
       </c>
-      <c r="C33" t="s">
-        <v>525</v>
-      </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="E33">
-        <v>0.4069428369913716</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8622,16 +8576,16 @@
         <v>1678</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="E34">
-        <v>0.213908623325213</v>
+        <v>0.282459345390989</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8639,16 +8593,16 @@
         <v>1678</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E35">
-        <v>0.282459345390989</v>
+        <v>0.6558268935480622</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8656,16 +8610,16 @@
         <v>1678</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E36">
-        <v>0.6558268935480622</v>
+        <v>0.2426675050439427</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8673,33 +8627,33 @@
         <v>1678</v>
       </c>
       <c r="B37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E37">
-        <v>0.2426675050439427</v>
+        <v>0.3729915271149092</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1678</v>
+        <v>1780</v>
       </c>
       <c r="B38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C38" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="E38">
-        <v>0.3729915271149092</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8707,16 +8661,16 @@
         <v>1780</v>
       </c>
       <c r="B39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>566</v>
+        <v>357</v>
       </c>
       <c r="E39">
-        <v>0.3591245085688587</v>
+        <v>0.5425321021826091</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8724,16 +8678,16 @@
         <v>1780</v>
       </c>
       <c r="B40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="D40" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="E40">
-        <v>0.5425321021826091</v>
+        <v>0.3080699896835655</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8741,33 +8695,33 @@
         <v>1780</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D41" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E41">
-        <v>0.3080699896835655</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1780</v>
+        <v>1702</v>
       </c>
       <c r="B42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C42" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="D42" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E42">
-        <v>0.440318176883044</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8775,16 +8729,16 @@
         <v>1702</v>
       </c>
       <c r="B43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="D43" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="E43">
-        <v>0.3591245085688587</v>
+        <v>0.3096994713609652</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8792,16 +8746,16 @@
         <v>1702</v>
       </c>
       <c r="B44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D44" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="E44">
-        <v>0.3096994713609652</v>
+        <v>0.3679369020087655</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8809,16 +8763,16 @@
         <v>1702</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D45" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E45">
-        <v>0.3679369020087655</v>
+        <v>0.440318176883044</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8826,16 +8780,16 @@
         <v>1702</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D46" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E46">
-        <v>0.440318176883044</v>
+        <v>0.2290664676186625</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -8843,33 +8797,33 @@
         <v>1702</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>594</v>
+        <v>108</v>
       </c>
       <c r="E47">
-        <v>0.2290664676186625</v>
+        <v>0.3977339562922829</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1702</v>
+        <v>1769</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>533</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>592</v>
       </c>
       <c r="E48">
-        <v>0.3977339562922829</v>
+        <v>0.4146677019154821</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8877,16 +8831,16 @@
         <v>1769</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C49" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E49">
-        <v>0.4146677019154821</v>
+        <v>0.6951585242949807</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8894,33 +8848,33 @@
         <v>1769</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E50">
-        <v>0.6951585242949807</v>
+        <v>0.7693265763941781</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1769</v>
+        <v>1738</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="E51">
-        <v>0.7693265763941781</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8928,16 +8882,16 @@
         <v>1738</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C52" t="s">
-        <v>539</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>566</v>
+        <v>357</v>
       </c>
       <c r="E52">
-        <v>0.3591245085688587</v>
+        <v>0.5425321021826091</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -8945,33 +8899,33 @@
         <v>1738</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>537</v>
       </c>
       <c r="D53" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="E53">
-        <v>0.5425321021826091</v>
+        <v>0.4326058771399653</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1738</v>
+        <v>1692</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C54" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D54" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="E54">
-        <v>0.4326058771399653</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -8979,16 +8933,16 @@
         <v>1692</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D55" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="E55">
-        <v>0.3591245085688587</v>
+        <v>0.4283678602623905</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -8996,33 +8950,33 @@
         <v>1692</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D56" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E56">
-        <v>0.4283678602623905</v>
+        <v>0.1877037035573443</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1692</v>
+        <v>1713</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D57" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="E57">
-        <v>0.1877037035573443</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9030,16 +8984,16 @@
         <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C58" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D58" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="E58">
-        <v>0.3591245085688587</v>
+        <v>0.2251595568829411</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9047,33 +9001,33 @@
         <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D59" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E59">
-        <v>0.2251595568829411</v>
+        <v>0.2270674444994045</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1713</v>
+        <v>1764</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C60" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="E60">
-        <v>0.2270674444994045</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9081,16 +9035,16 @@
         <v>1764</v>
       </c>
       <c r="B61" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" t="s">
         <v>497</v>
       </c>
-      <c r="C61" t="s">
-        <v>507</v>
-      </c>
       <c r="D61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E61">
-        <v>0.3591245085688587</v>
+        <v>0.213908623325213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9098,16 +9052,16 @@
         <v>1764</v>
       </c>
       <c r="B62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C62" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="D62" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="E62">
-        <v>0.213908623325213</v>
+        <v>0.2404453628156654</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9115,16 +9069,16 @@
         <v>1764</v>
       </c>
       <c r="B63" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C63" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D63" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E63">
-        <v>0.2404453628156654</v>
+        <v>0.2290664676186625</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9132,16 +9086,16 @@
         <v>1764</v>
       </c>
       <c r="B64" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C64" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D64" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E64">
-        <v>0.2290664676186625</v>
+        <v>0.3162869680311927</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -9149,33 +9103,33 @@
         <v>1764</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E65">
-        <v>0.3162869680311927</v>
+        <v>0.5538359453674728</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C66" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D66" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="E66">
-        <v>0.5538359453674728</v>
+        <v>0.4494022173177205</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -9183,16 +9137,16 @@
         <v>1761</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C67" t="s">
-        <v>550</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>582</v>
+        <v>137</v>
       </c>
       <c r="E67">
-        <v>0.4494022173177205</v>
+        <v>0.7120334889182957</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -9200,16 +9154,16 @@
         <v>1761</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>548</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>603</v>
       </c>
       <c r="E68">
-        <v>0.7120334889182957</v>
+        <v>0.9331749381090358</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -9217,16 +9171,16 @@
         <v>1761</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C69" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D69" t="s">
-        <v>606</v>
+        <v>481</v>
       </c>
       <c r="E69">
-        <v>0.9331749381090358</v>
+        <v>0.5452492946420686</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9234,16 +9188,16 @@
         <v>1761</v>
       </c>
       <c r="B70" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D70" t="s">
-        <v>483</v>
+        <v>604</v>
       </c>
       <c r="E70">
-        <v>0.5452492946420686</v>
+        <v>0.5984058642031338</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -9251,16 +9205,16 @@
         <v>1761</v>
       </c>
       <c r="B71" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C71" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D71" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E71">
-        <v>0.5984058642031338</v>
+        <v>0.5395106115880424</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -9268,33 +9222,33 @@
         <v>1761</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D72" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E72">
-        <v>0.5395106115880424</v>
+        <v>0.4964375813302258</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1761</v>
+        <v>1793</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D73" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="E73">
-        <v>0.4964375813302258</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -9302,16 +9256,16 @@
         <v>1793</v>
       </c>
       <c r="B74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D74" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="E74">
-        <v>0.3591245085688587</v>
+        <v>0.2031259838440961</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -9319,16 +9273,16 @@
         <v>1793</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C75" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D75" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E75">
-        <v>0.2031259838440961</v>
+        <v>0.5597868388875291</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9336,16 +9290,16 @@
         <v>1793</v>
       </c>
       <c r="B76" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C76" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D76" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E76">
-        <v>0.5597868388875291</v>
+        <v>0.2501566337210089</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9353,33 +9307,33 @@
         <v>1793</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D77" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E77">
-        <v>0.2501566337210089</v>
+        <v>0.4777569697707557</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1793</v>
+        <v>1722</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D78" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E78">
-        <v>0.4777569697707557</v>
+        <v>0.2771486090562587</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -9387,33 +9341,33 @@
         <v>1722</v>
       </c>
       <c r="B79" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C79" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E79">
-        <v>0.2771486090562587</v>
+        <v>0.351874146155455</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1722</v>
+        <v>1779</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C80" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="E80">
-        <v>0.351874146155455</v>
+        <v>0.3591245085688587</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -9421,16 +9375,16 @@
         <v>1779</v>
       </c>
       <c r="B81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C81" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="D81" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="E81">
-        <v>0.3591245085688587</v>
+        <v>0.2604356403536019</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -9438,16 +9392,16 @@
         <v>1779</v>
       </c>
       <c r="B82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C82" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D82" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E82">
-        <v>0.2604356403536019</v>
+        <v>0.5210034668458319</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9455,32 +9409,15 @@
         <v>1779</v>
       </c>
       <c r="B83" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E83">
-        <v>0.5210034668458319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>1779</v>
-      </c>
-      <c r="B84" t="s">
-        <v>497</v>
-      </c>
-      <c r="C84" t="s">
-        <v>565</v>
-      </c>
-      <c r="D84" t="s">
-        <v>618</v>
-      </c>
-      <c r="E84">
         <v>0.8955290949729534</v>
       </c>
     </row>
@@ -9491,7 +9428,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9519,13 +9456,13 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E2">
         <v>0.4849357129151612</v>
@@ -9536,13 +9473,13 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E3">
         <v>0.4261309592179109</v>
@@ -9553,13 +9490,13 @@
         <v>1718</v>
       </c>
       <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
         <v>619</v>
       </c>
-      <c r="C4" t="s">
-        <v>622</v>
-      </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0.7577205256897436</v>
@@ -9570,13 +9507,13 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E5">
         <v>0.4849357129151612</v>
@@ -9587,13 +9524,13 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E6">
         <v>0.3307163494289813</v>
@@ -9604,13 +9541,13 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E7">
         <v>0.3549223414238651</v>
@@ -9621,13 +9558,13 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E8">
         <v>0.4849357129151612</v>
@@ -9638,13 +9575,13 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E9">
         <v>0.7484144507990851</v>
@@ -9655,13 +9592,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E10">
         <v>1.072055292651916</v>
@@ -9672,13 +9609,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E11">
         <v>0.6355952721888578</v>
@@ -9689,13 +9626,13 @@
         <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E12">
         <v>0.3340514395996714</v>
@@ -9706,13 +9643,13 @@
         <v>1788</v>
       </c>
       <c r="B13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E13">
         <v>0.4849357129151612</v>
@@ -9723,13 +9660,13 @@
         <v>1788</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E14">
         <v>0.3408418937789032</v>
@@ -9740,10 +9677,10 @@
         <v>1788</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
@@ -9757,13 +9694,13 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E16">
         <v>0.4849357129151612</v>
@@ -9774,13 +9711,13 @@
         <v>1766</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E17">
         <v>0.3503119180021123</v>
@@ -9791,13 +9728,13 @@
         <v>1766</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C18" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E18">
         <v>0.4718725330306324</v>
@@ -9805,19 +9742,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1766</v>
+        <v>1745</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>685</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9825,16 +9762,16 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C20" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E20">
-        <v>0.6236377069668011</v>
+        <v>0.6318314994783909</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9842,16 +9779,16 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E21">
-        <v>0.6318314994783909</v>
+        <v>0.3696829255768117</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9859,16 +9796,16 @@
         <v>1745</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E22">
-        <v>0.3696829255768117</v>
+        <v>0.4771124686404751</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9876,16 +9813,16 @@
         <v>1745</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C23" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D23" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E23">
-        <v>0.4771124686404751</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9893,16 +9830,16 @@
         <v>1745</v>
       </c>
       <c r="B24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D24" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E24">
-        <v>0.7484144507990851</v>
+        <v>0.5678854566460134</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9910,16 +9847,16 @@
         <v>1745</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E25">
-        <v>0.5678854566460134</v>
+        <v>0.6693256045127118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9927,33 +9864,33 @@
         <v>1745</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C26" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D26" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E26">
-        <v>0.6693256045127118</v>
+        <v>0.4619758017391126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C27" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="E27">
-        <v>0.4619758017391126</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9961,16 +9898,16 @@
         <v>1780</v>
       </c>
       <c r="B28" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C28" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D28" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="E28">
-        <v>0.4849357129151612</v>
+        <v>0.9741492928459193</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9978,16 +9915,16 @@
         <v>1780</v>
       </c>
       <c r="B29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E29">
-        <v>0.9741492928459193</v>
+        <v>0.4700632869999659</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9995,16 +9932,16 @@
         <v>1780</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D30" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="E30">
-        <v>0.4700632869999659</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10012,33 +9949,33 @@
         <v>1780</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C31" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E31">
-        <v>0.7484144507990851</v>
+        <v>0.3622341551547815</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1780</v>
+        <v>1690</v>
       </c>
       <c r="B32" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C32" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="E32">
-        <v>0.3622341551547815</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10046,16 +9983,16 @@
         <v>1690</v>
       </c>
       <c r="B33" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C33" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="E33">
-        <v>0.4849357129151612</v>
+        <v>0.3993929887152154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10063,33 +10000,33 @@
         <v>1690</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D34" t="s">
-        <v>699</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>0.3993929887152154</v>
+        <v>0.3072223097740872</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1690</v>
+        <v>1702</v>
       </c>
       <c r="B35" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C35" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>674</v>
       </c>
       <c r="E35">
-        <v>0.3072223097740872</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10097,16 +10034,16 @@
         <v>1702</v>
       </c>
       <c r="B36" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" t="s">
         <v>619</v>
       </c>
-      <c r="C36" t="s">
-        <v>623</v>
-      </c>
       <c r="D36" t="s">
-        <v>678</v>
+        <v>218</v>
       </c>
       <c r="E36">
-        <v>0.4849357129151612</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10114,16 +10051,16 @@
         <v>1702</v>
       </c>
       <c r="B37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C37" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>696</v>
       </c>
       <c r="E37">
-        <v>0.7577205256897436</v>
+        <v>0.8334764493366161</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10131,16 +10068,16 @@
         <v>1702</v>
       </c>
       <c r="B38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C38" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D38" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E38">
-        <v>0.8334764493366161</v>
+        <v>0.6252035517335611</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10148,33 +10085,33 @@
         <v>1702</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C39" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D39" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="E39">
-        <v>0.6252035517335611</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1702</v>
+        <v>1769</v>
       </c>
       <c r="B40" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C40" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E40">
-        <v>0.7484144507990851</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10182,16 +10119,16 @@
         <v>1769</v>
       </c>
       <c r="B41" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>0.6236377069668011</v>
+        <v>0.7966957281090666</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10199,16 +10136,16 @@
         <v>1769</v>
       </c>
       <c r="B42" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>649</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>698</v>
       </c>
       <c r="E42">
-        <v>0.7966957281090666</v>
+        <v>0.4523782033705347</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10216,33 +10153,33 @@
         <v>1769</v>
       </c>
       <c r="B43" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C43" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D43" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E43">
-        <v>0.4523782033705347</v>
+        <v>0.3817340335322277</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="B44" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="D44" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="E44">
-        <v>0.3817340335322277</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10250,16 +10187,16 @@
         <v>1764</v>
       </c>
       <c r="B45" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C45" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D45" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E45">
-        <v>0.6236377069668011</v>
+        <v>0.7729723168397358</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10267,16 +10204,16 @@
         <v>1764</v>
       </c>
       <c r="B46" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C46" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D46" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E46">
-        <v>0.7729723168397358</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10284,16 +10221,16 @@
         <v>1764</v>
       </c>
       <c r="B47" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D47" t="s">
-        <v>682</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>0.7484144507990851</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10301,16 +10238,16 @@
         <v>1764</v>
       </c>
       <c r="B48" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C48" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>701</v>
       </c>
       <c r="E48">
-        <v>0.7577205256897436</v>
+        <v>0.5624489105118669</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10318,33 +10255,33 @@
         <v>1764</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C49" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D49" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E49">
-        <v>0.5624489105118669</v>
+        <v>0.6527643681443239</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1764</v>
+        <v>1624</v>
       </c>
       <c r="B50" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C50" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D50" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="E50">
-        <v>0.6527643681443239</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10352,16 +10289,16 @@
         <v>1624</v>
       </c>
       <c r="B51" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C51" t="s">
-        <v>659</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
+        <v>218</v>
       </c>
       <c r="E51">
-        <v>0.4849357129151612</v>
+        <v>0.7577205256897436</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10369,16 +10306,16 @@
         <v>1624</v>
       </c>
       <c r="B52" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="E52">
-        <v>0.7577205256897436</v>
+        <v>0.3882335382862115</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10386,16 +10323,16 @@
         <v>1624</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>656</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>703</v>
       </c>
       <c r="E53">
-        <v>0.3882335382862115</v>
+        <v>0.5061889867914552</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -10403,16 +10340,16 @@
         <v>1624</v>
       </c>
       <c r="B54" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C54" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D54" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E54">
-        <v>0.5061889867914552</v>
+        <v>0.5101950613937689</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -10420,16 +10357,16 @@
         <v>1624</v>
       </c>
       <c r="B55" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D55" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E55">
-        <v>0.5101950613937689</v>
+        <v>0.7215966641437968</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10437,33 +10374,33 @@
         <v>1624</v>
       </c>
       <c r="B56" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C56" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D56" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E56">
-        <v>0.7215966641437968</v>
+        <v>0.5815028023364572</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1624</v>
+        <v>1761</v>
       </c>
       <c r="B57" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C57" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D57" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="E57">
-        <v>0.5815028023364572</v>
+        <v>0.6236377069668011</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10471,16 +10408,16 @@
         <v>1761</v>
       </c>
       <c r="B58" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C58" t="s">
-        <v>664</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>689</v>
+        <v>137</v>
       </c>
       <c r="E58">
-        <v>0.6236377069668011</v>
+        <v>0.7966957281090666</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -10488,16 +10425,16 @@
         <v>1761</v>
       </c>
       <c r="B59" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>661</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>707</v>
       </c>
       <c r="E59">
-        <v>0.7966957281090666</v>
+        <v>1.142232714798644</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -10505,33 +10442,33 @@
         <v>1761</v>
       </c>
       <c r="B60" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C60" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D60" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E60">
-        <v>1.142232714798644</v>
+        <v>1.34169431788898</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1761</v>
+        <v>1786</v>
       </c>
       <c r="B61" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C61" t="s">
-        <v>666</v>
+        <v>623</v>
       </c>
       <c r="D61" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="E61">
-        <v>1.34169431788898</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -10539,16 +10476,16 @@
         <v>1786</v>
       </c>
       <c r="B62" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C62" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="D62" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="E62">
-        <v>0.4849357129151612</v>
+        <v>0.4330697701188115</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10556,16 +10493,16 @@
         <v>1786</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C63" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D63" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="E63">
-        <v>0.4330697701188115</v>
+        <v>0.7484144507990851</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -10573,33 +10510,33 @@
         <v>1786</v>
       </c>
       <c r="B64" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C64" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D64" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="E64">
-        <v>0.7484144507990851</v>
+        <v>0.3642504760410678</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="B65" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C65" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D65" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="E65">
-        <v>0.3642504760410678</v>
+        <v>0.4849357129151612</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -10607,16 +10544,16 @@
         <v>1793</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C66" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D66" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="E66">
-        <v>0.4849357129151612</v>
+        <v>0.4586028053662804</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -10624,16 +10561,16 @@
         <v>1793</v>
       </c>
       <c r="B67" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C67" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D67" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E67">
-        <v>0.4586028053662804</v>
+        <v>0.3676051985804273</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10641,16 +10578,16 @@
         <v>1793</v>
       </c>
       <c r="B68" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C68" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D68" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E68">
-        <v>0.3676051985804273</v>
+        <v>0.7710126798226933</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10658,33 +10595,33 @@
         <v>1793</v>
       </c>
       <c r="B69" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C69" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D69" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E69">
-        <v>0.7710126798226933</v>
+        <v>0.2259806347079802</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1793</v>
+        <v>1733</v>
       </c>
       <c r="B70" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C70" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D70" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E70">
-        <v>0.2259806347079802</v>
+        <v>0.4384700771291551</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10692,16 +10629,16 @@
         <v>1733</v>
       </c>
       <c r="B71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C71" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D71" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E71">
-        <v>0.4384700771291551</v>
+        <v>0.6752341779311977</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -10709,32 +10646,15 @@
         <v>1733</v>
       </c>
       <c r="B72" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C72" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D72" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E72">
-        <v>0.6752341779311977</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>1733</v>
-      </c>
-      <c r="B73" t="s">
-        <v>619</v>
-      </c>
-      <c r="C73" t="s">
-        <v>677</v>
-      </c>
-      <c r="D73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E73">
         <v>0.4844114969334282</v>
       </c>
     </row>
@@ -10745,7 +10665,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10773,13 +10693,13 @@
         <v>1716</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E2">
         <v>0.7366192192897784</v>
@@ -10790,10 +10710,10 @@
         <v>1716</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
@@ -10807,13 +10727,13 @@
         <v>1716</v>
       </c>
       <c r="B4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E4">
         <v>0.5751206891661629</v>
@@ -10824,13 +10744,13 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E5">
         <v>0.542607858400911</v>
@@ -10841,13 +10761,13 @@
         <v>1747</v>
       </c>
       <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
         <v>722</v>
       </c>
-      <c r="C6" t="s">
-        <v>726</v>
-      </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E6">
         <v>0.4342575819249185</v>
@@ -10858,13 +10778,13 @@
         <v>1747</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E7">
         <v>0.479174949489157</v>
@@ -10875,13 +10795,13 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8">
         <v>0.5102398084178478</v>
@@ -10892,13 +10812,13 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E9">
         <v>1.053944571634351</v>
@@ -10909,13 +10829,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C10" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E10">
         <v>0.4239869194329465</v>
@@ -10926,13 +10846,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E11">
         <v>0.5654731963533446</v>
@@ -10943,13 +10863,13 @@
         <v>1766</v>
       </c>
       <c r="B12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E12">
         <v>0.5076237511508171</v>
@@ -10960,13 +10880,13 @@
         <v>1766</v>
       </c>
       <c r="B13" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E13">
         <v>0.7287638904940728</v>
@@ -10977,13 +10897,13 @@
         <v>1766</v>
       </c>
       <c r="B14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C14" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E14">
         <v>0.7596164103759426</v>
@@ -10994,13 +10914,13 @@
         <v>1766</v>
       </c>
       <c r="B15" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C15" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E15">
         <v>0.5309457527444841</v>
@@ -11011,13 +10931,13 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C16" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E16">
         <v>0.4947841674729005</v>
@@ -11028,13 +10948,13 @@
         <v>1745</v>
       </c>
       <c r="B17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D17" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E17">
         <v>0.5153141460319781</v>
@@ -11045,13 +10965,13 @@
         <v>1745</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D18" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E18">
         <v>0.5751206891661629</v>
@@ -11062,13 +10982,13 @@
         <v>1745</v>
       </c>
       <c r="B19" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E19">
         <v>0.6641089023592284</v>
@@ -11079,13 +10999,13 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C20" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E20">
         <v>0.8296215371595073</v>
@@ -11096,13 +11016,13 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D21" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E21">
         <v>0.8432538401362498</v>
@@ -11113,13 +11033,13 @@
         <v>1780</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C22" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D22" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E22">
         <v>0.566893533364268</v>
@@ -11130,13 +11050,13 @@
         <v>1780</v>
       </c>
       <c r="B23" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D23" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E23">
         <v>0.5430196353811256</v>
@@ -11147,13 +11067,13 @@
         <v>1780</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C24" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E24">
         <v>0.4239869194329465</v>
@@ -11164,13 +11084,13 @@
         <v>1780</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C25" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D25" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E25">
         <v>0.5243391335948087</v>
@@ -11181,10 +11101,10 @@
         <v>1780</v>
       </c>
       <c r="B26" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C26" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D26" t="s">
         <v>134</v>
@@ -11198,13 +11118,13 @@
         <v>1690</v>
       </c>
       <c r="B27" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C27" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E27">
         <v>0.5076237511508171</v>
@@ -11215,13 +11135,13 @@
         <v>1690</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C28" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E28">
         <v>0.4925398304538087</v>
@@ -11232,13 +11152,13 @@
         <v>1690</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C29" t="s">
         <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29">
         <v>0.9818977940990145</v>
@@ -11249,13 +11169,13 @@
         <v>1769</v>
       </c>
       <c r="B30" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C30" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D30" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E30">
         <v>0.6287577957750355</v>
@@ -11266,13 +11186,13 @@
         <v>1769</v>
       </c>
       <c r="B31" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C31" t="s">
         <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31">
         <v>0.9818977940990145</v>
@@ -11283,13 +11203,13 @@
         <v>1769</v>
       </c>
       <c r="B32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C32" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D32" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E32">
         <v>1.255939920497319</v>
@@ -11300,7 +11220,7 @@
         <v>1769</v>
       </c>
       <c r="B33" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
@@ -11317,13 +11237,13 @@
         <v>1736</v>
       </c>
       <c r="B34" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C34" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D34" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E34">
         <v>0.4209454502298091</v>
@@ -11334,13 +11254,13 @@
         <v>1736</v>
       </c>
       <c r="B35" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C35" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D35" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E35">
         <v>0.4534371021283184</v>
@@ -11351,13 +11271,13 @@
         <v>1736</v>
       </c>
       <c r="B36" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C36" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D36" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E36">
         <v>0.5751206891661629</v>
@@ -11368,13 +11288,13 @@
         <v>1736</v>
       </c>
       <c r="B37" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C37" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D37" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E37">
         <v>0.4222904115703268</v>
@@ -11382,19 +11302,19 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B38" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>751</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>794</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.5274830075008132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11402,16 +11322,16 @@
         <v>1738</v>
       </c>
       <c r="B39" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C39" t="s">
-        <v>755</v>
+        <v>460</v>
       </c>
       <c r="D39" t="s">
-        <v>798</v>
+        <v>108</v>
       </c>
       <c r="E39">
-        <v>0.5274830075008132</v>
+        <v>0.6069566976723814</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11419,33 +11339,33 @@
         <v>1738</v>
       </c>
       <c r="B40" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>752</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E40">
-        <v>0.6069566976723814</v>
+        <v>0.8054114688849808</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1738</v>
+        <v>1761</v>
       </c>
       <c r="B41" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C41" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>795</v>
       </c>
       <c r="E41">
-        <v>0.8054114688849808</v>
+        <v>0.6045727627217996</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11453,16 +11373,16 @@
         <v>1761</v>
       </c>
       <c r="B42" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C42" t="s">
-        <v>757</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>799</v>
+        <v>137</v>
       </c>
       <c r="E42">
-        <v>0.6045727627217996</v>
+        <v>0.8775091460235667</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11470,16 +11390,16 @@
         <v>1761</v>
       </c>
       <c r="B43" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>662</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>708</v>
       </c>
       <c r="E43">
-        <v>0.8775091460235667</v>
+        <v>1.388333558376079</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11487,16 +11407,16 @@
         <v>1761</v>
       </c>
       <c r="B44" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C44" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="D44" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="E44">
-        <v>1.388333558376079</v>
+        <v>0.5837717971043096</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11504,16 +11424,16 @@
         <v>1761</v>
       </c>
       <c r="B45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C45" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D45" t="s">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="E45">
-        <v>0.5837717971043096</v>
+        <v>0.472183415274664</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11521,16 +11441,16 @@
         <v>1761</v>
       </c>
       <c r="B46" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C46" t="s">
-        <v>759</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>487</v>
+        <v>136</v>
       </c>
       <c r="E46">
-        <v>0.472183415274664</v>
+        <v>0.6252800306227255</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11538,16 +11458,16 @@
         <v>1761</v>
       </c>
       <c r="B47" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>756</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
       <c r="E47">
-        <v>0.6252800306227255</v>
+        <v>0.5174615914805907</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11555,16 +11475,16 @@
         <v>1761</v>
       </c>
       <c r="B48" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C48" t="s">
-        <v>760</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>801</v>
+        <v>261</v>
       </c>
       <c r="E48">
-        <v>0.5174615914805907</v>
+        <v>0.8730757991833574</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11572,33 +11492,33 @@
         <v>1761</v>
       </c>
       <c r="B49" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>757</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>798</v>
       </c>
       <c r="E49">
-        <v>0.8730757991833574</v>
+        <v>0.8572559209287622</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B50" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C50" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D50" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="E50">
-        <v>0.8572559209287622</v>
+        <v>0.5076237511508171</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11606,16 +11526,16 @@
         <v>1762</v>
       </c>
       <c r="B51" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C51" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D51" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="E51">
-        <v>0.5076237511508171</v>
+        <v>0.7504717420092915</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11623,16 +11543,16 @@
         <v>1762</v>
       </c>
       <c r="B52" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C52" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D52" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E52">
-        <v>0.7504717420092915</v>
+        <v>0.4647760078486823</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11640,16 +11560,16 @@
         <v>1762</v>
       </c>
       <c r="B53" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C53" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D53" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E53">
-        <v>0.4647760078486823</v>
+        <v>0.7159115943691885</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11657,33 +11577,33 @@
         <v>1762</v>
       </c>
       <c r="B54" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C54" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D54" t="s">
-        <v>805</v>
+        <v>108</v>
       </c>
       <c r="E54">
-        <v>0.7159115943691885</v>
+        <v>0.6069566976723814</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1762</v>
+        <v>1731</v>
       </c>
       <c r="B55" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C55" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>802</v>
       </c>
       <c r="E55">
-        <v>0.6069566976723814</v>
+        <v>0.7372293475145619</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11691,33 +11611,33 @@
         <v>1731</v>
       </c>
       <c r="B56" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C56" t="s">
-        <v>767</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
-        <v>806</v>
+        <v>485</v>
       </c>
       <c r="E56">
-        <v>0.7372293475145619</v>
+        <v>0.472183415274664</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="B57" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>764</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>803</v>
       </c>
       <c r="E57">
-        <v>0.472183415274664</v>
+        <v>0.5588963557749065</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11725,16 +11645,16 @@
         <v>1722</v>
       </c>
       <c r="B58" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C58" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D58" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E58">
-        <v>0.5588963557749065</v>
+        <v>0.5690676869993839</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11742,33 +11662,33 @@
         <v>1722</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C59" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D59" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E59">
-        <v>0.5690676869993839</v>
+        <v>0.4729217976561517</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="B60" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C60" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D60" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="E60">
-        <v>0.4729217976561517</v>
+        <v>0.5274830075008132</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -11776,16 +11696,16 @@
         <v>1733</v>
       </c>
       <c r="B61" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C61" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D61" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E61">
-        <v>0.5274830075008132</v>
+        <v>0.5430196353811256</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11793,16 +11713,16 @@
         <v>1733</v>
       </c>
       <c r="B62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C62" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D62" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="E62">
-        <v>0.5430196353811256</v>
+        <v>0.4617632373015762</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11810,32 +11730,15 @@
         <v>1733</v>
       </c>
       <c r="B63" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C63" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D63" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E63">
-        <v>0.4617632373015762</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>1733</v>
-      </c>
-      <c r="B64" t="s">
-        <v>722</v>
-      </c>
-      <c r="C64" t="s">
-        <v>773</v>
-      </c>
-      <c r="D64" t="s">
-        <v>811</v>
-      </c>
-      <c r="E64">
         <v>0.5464055392654599</v>
       </c>
     </row>
